--- a/root causes/author2.xlsx
+++ b/root causes/author2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dr\WHU\Copilot\issre\replication\patterns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dr\WHU\Copilot\ESE\root-cause\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8905EF2E-4831-49FB-B6CE-8885F450B30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1786EE3C-47AF-426C-87CC-39D071ED1599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="2510" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,550 @@
   </si>
   <si>
     <t>Unused Variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unnecessary Function Abstraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H4.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H9.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H16.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H20.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H24.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H31.PY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H37.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H49.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H51.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H54.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H58.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H85.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H87.PY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H89.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H90.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H113.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H121.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M12.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M19.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M62.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M75.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M88.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M90.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M94.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M97.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M108.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M123.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M128.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M129.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M130.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M137.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M140.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M141.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M166.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M170.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M230.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M239.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M251.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M256.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M281.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M296.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M308.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M392.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M395.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M414.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M421.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M424.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M428.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M437.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M451.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M572.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M578.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M586.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M588.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M597.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M632.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M720.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M725.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M740.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M744.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M750.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M753.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M754.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M757.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M758.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M764.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M766.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M781.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>148.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>149.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>155.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>163.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H121</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,12 +742,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -218,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,6 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -506,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:L682"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J326" sqref="J326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -524,9 +1075,10 @@
     <col min="9" max="9" width="32.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="29.4140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +1109,11 @@
       <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -566,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -574,7 +1129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -582,7 +1137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -590,7 +1145,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +1153,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -606,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,7 +1169,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -622,7 +1177,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -630,7 +1185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -638,7 +1193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -646,7 +1201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -654,7 +1209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -662,7 +1217,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -670,7 +1225,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1618,9 +2173,6 @@
       <c r="A134" s="1">
         <v>298</v>
       </c>
-      <c r="B134" s="1">
-        <v>298</v>
-      </c>
       <c r="E134" s="1">
         <v>298</v>
       </c>
@@ -3051,72 +3603,6224 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <v>934</v>
+        <v>935</v>
+      </c>
+      <c r="H313" s="1">
+        <v>935</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <v>935</v>
-      </c>
-      <c r="H314" s="1">
-        <v>935</v>
+        <v>937</v>
+      </c>
+      <c r="G314" s="1">
+        <v>937</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <v>937</v>
-      </c>
-      <c r="G315" s="1">
-        <v>937</v>
+        <v>944</v>
+      </c>
+      <c r="B315" s="1">
+        <v>944</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="B316" s="1">
-        <v>944</v>
+        <v>949</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <v>949</v>
-      </c>
-      <c r="B317" s="1">
-        <v>949</v>
+        <v>955</v>
+      </c>
+      <c r="E317" s="1">
+        <v>955</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <v>955</v>
-      </c>
-      <c r="E318" s="1">
-        <v>955</v>
+        <v>956</v>
+      </c>
+      <c r="I318" s="1">
+        <v>956</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <v>956</v>
-      </c>
-      <c r="I319" s="1">
-        <v>956</v>
+        <v>961</v>
+      </c>
+      <c r="G319" s="1">
+        <v>961</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <v>961</v>
-      </c>
-      <c r="G320" s="1">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A321" s="1">
         <v>962</v>
       </c>
-      <c r="H321" s="1">
+      <c r="H320" s="1">
         <v>962</v>
       </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>43</v>
+      </c>
+      <c r="B321"/>
+      <c r="C321"/>
+      <c r="D321"/>
+      <c r="E321"/>
+      <c r="F321"/>
+      <c r="G321"/>
+      <c r="H321"/>
+      <c r="I321">
+        <v>4</v>
+      </c>
+      <c r="J321"/>
+      <c r="K321"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>44</v>
+      </c>
+      <c r="B322"/>
+      <c r="C322"/>
+      <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322"/>
+      <c r="G322">
+        <v>9</v>
+      </c>
+      <c r="H322"/>
+      <c r="I322"/>
+      <c r="J322"/>
+      <c r="K322"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>45</v>
+      </c>
+      <c r="B323">
+        <v>16</v>
+      </c>
+      <c r="C323"/>
+      <c r="D323"/>
+      <c r="E323"/>
+      <c r="F323"/>
+      <c r="G323"/>
+      <c r="H323"/>
+      <c r="I323"/>
+      <c r="J323"/>
+      <c r="K323"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>46</v>
+      </c>
+      <c r="B324"/>
+      <c r="C324"/>
+      <c r="D324"/>
+      <c r="E324">
+        <v>20</v>
+      </c>
+      <c r="F324"/>
+      <c r="G324"/>
+      <c r="H324"/>
+      <c r="I324"/>
+      <c r="J324"/>
+      <c r="K324"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>47</v>
+      </c>
+      <c r="B325"/>
+      <c r="C325"/>
+      <c r="D325"/>
+      <c r="E325"/>
+      <c r="F325"/>
+      <c r="G325"/>
+      <c r="H325">
+        <v>24</v>
+      </c>
+      <c r="I325"/>
+      <c r="J325"/>
+      <c r="K325"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>48</v>
+      </c>
+      <c r="B326"/>
+      <c r="C326"/>
+      <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326"/>
+      <c r="G326"/>
+      <c r="H326">
+        <v>31</v>
+      </c>
+      <c r="I326"/>
+      <c r="J326"/>
+      <c r="K326"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>49</v>
+      </c>
+      <c r="B327"/>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327"/>
+      <c r="G327">
+        <v>37</v>
+      </c>
+      <c r="H327"/>
+      <c r="I327"/>
+      <c r="J327"/>
+      <c r="K327"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>50</v>
+      </c>
+      <c r="B328"/>
+      <c r="C328"/>
+      <c r="D328"/>
+      <c r="E328"/>
+      <c r="F328"/>
+      <c r="G328"/>
+      <c r="H328">
+        <v>49</v>
+      </c>
+      <c r="I328"/>
+      <c r="J328"/>
+      <c r="K328"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>51</v>
+      </c>
+      <c r="B329"/>
+      <c r="C329"/>
+      <c r="D329"/>
+      <c r="E329"/>
+      <c r="F329"/>
+      <c r="G329"/>
+      <c r="H329"/>
+      <c r="I329" s="3">
+        <v>51</v>
+      </c>
+      <c r="J329"/>
+      <c r="K329"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>52</v>
+      </c>
+      <c r="B330"/>
+      <c r="C330"/>
+      <c r="D330"/>
+      <c r="E330"/>
+      <c r="F330"/>
+      <c r="G330">
+        <v>54</v>
+      </c>
+      <c r="H330"/>
+      <c r="I330"/>
+      <c r="J330"/>
+      <c r="K330"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>53</v>
+      </c>
+      <c r="B331"/>
+      <c r="C331"/>
+      <c r="D331"/>
+      <c r="E331">
+        <v>58</v>
+      </c>
+      <c r="F331"/>
+      <c r="G331"/>
+      <c r="H331"/>
+      <c r="I331"/>
+      <c r="J331"/>
+      <c r="K331"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>54</v>
+      </c>
+      <c r="B332"/>
+      <c r="C332"/>
+      <c r="D332"/>
+      <c r="E332"/>
+      <c r="F332"/>
+      <c r="G332"/>
+      <c r="H332"/>
+      <c r="I332" s="3">
+        <v>85</v>
+      </c>
+      <c r="J332"/>
+      <c r="K332"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>55</v>
+      </c>
+      <c r="B333"/>
+      <c r="C333"/>
+      <c r="D333"/>
+      <c r="E333">
+        <v>87</v>
+      </c>
+      <c r="F333"/>
+      <c r="G333"/>
+      <c r="H333"/>
+      <c r="I333"/>
+      <c r="J333"/>
+      <c r="K333"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>56</v>
+      </c>
+      <c r="B334"/>
+      <c r="C334"/>
+      <c r="D334"/>
+      <c r="E334"/>
+      <c r="F334"/>
+      <c r="G334">
+        <v>89</v>
+      </c>
+      <c r="H334"/>
+      <c r="I334"/>
+      <c r="J334"/>
+      <c r="K334"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>57</v>
+      </c>
+      <c r="B335"/>
+      <c r="C335"/>
+      <c r="D335"/>
+      <c r="E335"/>
+      <c r="F335">
+        <v>90</v>
+      </c>
+      <c r="G335"/>
+      <c r="H335"/>
+      <c r="I335"/>
+      <c r="J335"/>
+      <c r="K335"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>58</v>
+      </c>
+      <c r="B336">
+        <v>113</v>
+      </c>
+      <c r="C336"/>
+      <c r="D336"/>
+      <c r="E336"/>
+      <c r="F336"/>
+      <c r="G336"/>
+      <c r="H336"/>
+      <c r="I336"/>
+      <c r="J336"/>
+      <c r="K336"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>59</v>
+      </c>
+      <c r="B337"/>
+      <c r="C337"/>
+      <c r="D337"/>
+      <c r="E337"/>
+      <c r="F337"/>
+      <c r="G337"/>
+      <c r="H337"/>
+      <c r="I337">
+        <v>121</v>
+      </c>
+      <c r="J337"/>
+      <c r="K337"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>60</v>
+      </c>
+      <c r="B338"/>
+      <c r="C338"/>
+      <c r="D338"/>
+      <c r="E338"/>
+      <c r="F338"/>
+      <c r="G338"/>
+      <c r="H338" s="3">
+        <v>3</v>
+      </c>
+      <c r="I338"/>
+      <c r="J338"/>
+      <c r="K338"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>61</v>
+      </c>
+      <c r="B339">
+        <v>4</v>
+      </c>
+      <c r="C339"/>
+      <c r="D339"/>
+      <c r="E339"/>
+      <c r="F339"/>
+      <c r="G339"/>
+      <c r="H339"/>
+      <c r="I339"/>
+      <c r="J339"/>
+      <c r="K339"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>62</v>
+      </c>
+      <c r="B340"/>
+      <c r="C340"/>
+      <c r="D340"/>
+      <c r="E340">
+        <v>12</v>
+      </c>
+      <c r="F340"/>
+      <c r="G340"/>
+      <c r="H340"/>
+      <c r="I340"/>
+      <c r="J340"/>
+      <c r="K340"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>63</v>
+      </c>
+      <c r="B341"/>
+      <c r="C341"/>
+      <c r="D341"/>
+      <c r="E341">
+        <v>19</v>
+      </c>
+      <c r="F341"/>
+      <c r="G341"/>
+      <c r="H341"/>
+      <c r="I341"/>
+      <c r="J341"/>
+      <c r="K341"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>64</v>
+      </c>
+      <c r="B342"/>
+      <c r="C342"/>
+      <c r="D342"/>
+      <c r="E342"/>
+      <c r="F342"/>
+      <c r="G342">
+        <v>62</v>
+      </c>
+      <c r="H342"/>
+      <c r="I342"/>
+      <c r="J342"/>
+      <c r="K342"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>65</v>
+      </c>
+      <c r="B343"/>
+      <c r="C343"/>
+      <c r="D343"/>
+      <c r="E343">
+        <v>75</v>
+      </c>
+      <c r="F343"/>
+      <c r="G343"/>
+      <c r="H343"/>
+      <c r="I343"/>
+      <c r="J343"/>
+      <c r="K343"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>66</v>
+      </c>
+      <c r="B344"/>
+      <c r="C344"/>
+      <c r="D344"/>
+      <c r="E344">
+        <v>88</v>
+      </c>
+      <c r="F344"/>
+      <c r="G344"/>
+      <c r="H344"/>
+      <c r="I344"/>
+      <c r="J344"/>
+      <c r="K344"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>67</v>
+      </c>
+      <c r="B345"/>
+      <c r="C345"/>
+      <c r="D345"/>
+      <c r="E345">
+        <v>90</v>
+      </c>
+      <c r="F345"/>
+      <c r="G345"/>
+      <c r="H345"/>
+      <c r="I345"/>
+      <c r="J345"/>
+      <c r="K345"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>68</v>
+      </c>
+      <c r="B346"/>
+      <c r="C346"/>
+      <c r="D346"/>
+      <c r="E346" s="3">
+        <v>94</v>
+      </c>
+      <c r="F346"/>
+      <c r="G346"/>
+      <c r="H346"/>
+      <c r="I346"/>
+      <c r="J346"/>
+      <c r="K346"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>69</v>
+      </c>
+      <c r="B347"/>
+      <c r="C347"/>
+      <c r="D347"/>
+      <c r="E347">
+        <v>97</v>
+      </c>
+      <c r="F347"/>
+      <c r="G347"/>
+      <c r="H347"/>
+      <c r="I347"/>
+      <c r="J347"/>
+      <c r="K347"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>70</v>
+      </c>
+      <c r="B348">
+        <v>108</v>
+      </c>
+      <c r="C348"/>
+      <c r="D348"/>
+      <c r="E348"/>
+      <c r="F348"/>
+      <c r="G348"/>
+      <c r="H348"/>
+      <c r="I348"/>
+      <c r="J348"/>
+      <c r="K348"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>71</v>
+      </c>
+      <c r="B349">
+        <v>123</v>
+      </c>
+      <c r="C349"/>
+      <c r="D349"/>
+      <c r="E349"/>
+      <c r="F349"/>
+      <c r="G349"/>
+      <c r="H349"/>
+      <c r="I349"/>
+      <c r="J349"/>
+      <c r="K349"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>72</v>
+      </c>
+      <c r="B350" s="3">
+        <v>128</v>
+      </c>
+      <c r="C350"/>
+      <c r="D350"/>
+      <c r="E350"/>
+      <c r="F350"/>
+      <c r="G350"/>
+      <c r="H350"/>
+      <c r="I350"/>
+      <c r="J350"/>
+      <c r="K350"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>73</v>
+      </c>
+      <c r="B351">
+        <v>129</v>
+      </c>
+      <c r="C351"/>
+      <c r="D351"/>
+      <c r="E351"/>
+      <c r="F351"/>
+      <c r="G351"/>
+      <c r="H351"/>
+      <c r="I351"/>
+      <c r="J351"/>
+      <c r="K351"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>74</v>
+      </c>
+      <c r="B352"/>
+      <c r="C352"/>
+      <c r="D352"/>
+      <c r="E352">
+        <v>130</v>
+      </c>
+      <c r="F352"/>
+      <c r="G352"/>
+      <c r="H352"/>
+      <c r="I352"/>
+      <c r="J352"/>
+      <c r="K352"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>75</v>
+      </c>
+      <c r="B353">
+        <v>137</v>
+      </c>
+      <c r="C353"/>
+      <c r="D353"/>
+      <c r="E353"/>
+      <c r="F353"/>
+      <c r="G353"/>
+      <c r="H353"/>
+      <c r="I353"/>
+      <c r="J353"/>
+      <c r="K353"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>76</v>
+      </c>
+      <c r="B354"/>
+      <c r="C354"/>
+      <c r="D354"/>
+      <c r="E354">
+        <v>140</v>
+      </c>
+      <c r="F354"/>
+      <c r="G354"/>
+      <c r="H354"/>
+      <c r="I354"/>
+      <c r="J354"/>
+      <c r="K354"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>77</v>
+      </c>
+      <c r="B355"/>
+      <c r="C355"/>
+      <c r="D355"/>
+      <c r="E355"/>
+      <c r="F355"/>
+      <c r="G355"/>
+      <c r="H355"/>
+      <c r="I355">
+        <v>141</v>
+      </c>
+      <c r="J355"/>
+      <c r="K355"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>78</v>
+      </c>
+      <c r="B356"/>
+      <c r="C356"/>
+      <c r="D356"/>
+      <c r="E356">
+        <v>166</v>
+      </c>
+      <c r="F356"/>
+      <c r="G356"/>
+      <c r="H356"/>
+      <c r="I356"/>
+      <c r="J356"/>
+      <c r="K356"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>79</v>
+      </c>
+      <c r="B357"/>
+      <c r="C357"/>
+      <c r="D357"/>
+      <c r="E357"/>
+      <c r="F357"/>
+      <c r="G357"/>
+      <c r="H357"/>
+      <c r="I357">
+        <v>170</v>
+      </c>
+      <c r="J357"/>
+      <c r="K357"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>80</v>
+      </c>
+      <c r="B358"/>
+      <c r="C358"/>
+      <c r="D358">
+        <v>230</v>
+      </c>
+      <c r="E358"/>
+      <c r="F358"/>
+      <c r="G358"/>
+      <c r="H358"/>
+      <c r="I358"/>
+      <c r="J358"/>
+      <c r="K358"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>81</v>
+      </c>
+      <c r="B359"/>
+      <c r="C359"/>
+      <c r="D359"/>
+      <c r="E359"/>
+      <c r="F359"/>
+      <c r="G359">
+        <v>239</v>
+      </c>
+      <c r="H359"/>
+      <c r="I359"/>
+      <c r="J359"/>
+      <c r="K359"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>82</v>
+      </c>
+      <c r="B360"/>
+      <c r="C360"/>
+      <c r="D360"/>
+      <c r="E360"/>
+      <c r="F360">
+        <v>251</v>
+      </c>
+      <c r="G360"/>
+      <c r="H360"/>
+      <c r="I360"/>
+      <c r="J360"/>
+      <c r="K360"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>83</v>
+      </c>
+      <c r="B361"/>
+      <c r="C361"/>
+      <c r="D361"/>
+      <c r="E361"/>
+      <c r="F361"/>
+      <c r="G361"/>
+      <c r="H361">
+        <v>256</v>
+      </c>
+      <c r="I361"/>
+      <c r="J361"/>
+      <c r="K361"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>84</v>
+      </c>
+      <c r="B362">
+        <v>281</v>
+      </c>
+      <c r="C362"/>
+      <c r="D362"/>
+      <c r="E362"/>
+      <c r="F362"/>
+      <c r="G362"/>
+      <c r="H362"/>
+      <c r="I362"/>
+      <c r="J362"/>
+      <c r="K362"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>85</v>
+      </c>
+      <c r="B363"/>
+      <c r="C363"/>
+      <c r="D363">
+        <v>296</v>
+      </c>
+      <c r="E363"/>
+      <c r="F363"/>
+      <c r="G363"/>
+      <c r="H363"/>
+      <c r="I363"/>
+      <c r="J363"/>
+      <c r="K363"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>86</v>
+      </c>
+      <c r="B364"/>
+      <c r="C364"/>
+      <c r="D364"/>
+      <c r="E364"/>
+      <c r="F364"/>
+      <c r="G364"/>
+      <c r="H364"/>
+      <c r="I364">
+        <v>308</v>
+      </c>
+      <c r="J364"/>
+      <c r="K364"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>87</v>
+      </c>
+      <c r="B365"/>
+      <c r="C365" s="3">
+        <v>392</v>
+      </c>
+      <c r="D365"/>
+      <c r="E365"/>
+      <c r="F365"/>
+      <c r="G365"/>
+      <c r="H365"/>
+      <c r="I365"/>
+      <c r="J365"/>
+      <c r="K365"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>88</v>
+      </c>
+      <c r="B366"/>
+      <c r="C366"/>
+      <c r="D366"/>
+      <c r="E366">
+        <v>395</v>
+      </c>
+      <c r="F366"/>
+      <c r="G366"/>
+      <c r="H366"/>
+      <c r="I366"/>
+      <c r="J366"/>
+      <c r="K366"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>89</v>
+      </c>
+      <c r="B367"/>
+      <c r="C367"/>
+      <c r="D367">
+        <v>414</v>
+      </c>
+      <c r="E367"/>
+      <c r="F367"/>
+      <c r="G367"/>
+      <c r="H367"/>
+      <c r="I367"/>
+      <c r="J367"/>
+      <c r="K367"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>90</v>
+      </c>
+      <c r="B368">
+        <v>421</v>
+      </c>
+      <c r="C368"/>
+      <c r="D368"/>
+      <c r="E368"/>
+      <c r="F368"/>
+      <c r="G368"/>
+      <c r="H368"/>
+      <c r="I368"/>
+      <c r="J368"/>
+      <c r="K368"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>91</v>
+      </c>
+      <c r="B369"/>
+      <c r="C369"/>
+      <c r="D369"/>
+      <c r="E369"/>
+      <c r="F369"/>
+      <c r="G369"/>
+      <c r="H369"/>
+      <c r="I369">
+        <v>424</v>
+      </c>
+      <c r="J369"/>
+      <c r="K369"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>92</v>
+      </c>
+      <c r="B370"/>
+      <c r="C370"/>
+      <c r="D370"/>
+      <c r="E370"/>
+      <c r="F370"/>
+      <c r="G370"/>
+      <c r="H370">
+        <v>428</v>
+      </c>
+      <c r="I370"/>
+      <c r="J370"/>
+      <c r="K370"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>93</v>
+      </c>
+      <c r="B371"/>
+      <c r="C371"/>
+      <c r="D371"/>
+      <c r="E371"/>
+      <c r="F371"/>
+      <c r="G371"/>
+      <c r="H371"/>
+      <c r="I371">
+        <v>437</v>
+      </c>
+      <c r="J371"/>
+      <c r="K371"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>94</v>
+      </c>
+      <c r="B372">
+        <v>451</v>
+      </c>
+      <c r="C372"/>
+      <c r="D372"/>
+      <c r="E372"/>
+      <c r="F372"/>
+      <c r="G372"/>
+      <c r="H372"/>
+      <c r="I372"/>
+      <c r="J372"/>
+      <c r="K372"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>95</v>
+      </c>
+      <c r="B373">
+        <v>572</v>
+      </c>
+      <c r="C373"/>
+      <c r="D373"/>
+      <c r="E373"/>
+      <c r="F373"/>
+      <c r="G373"/>
+      <c r="H373"/>
+      <c r="I373"/>
+      <c r="J373"/>
+      <c r="K373"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>96</v>
+      </c>
+      <c r="B374"/>
+      <c r="C374"/>
+      <c r="D374"/>
+      <c r="E374"/>
+      <c r="F374"/>
+      <c r="G374"/>
+      <c r="H374"/>
+      <c r="I374">
+        <v>578</v>
+      </c>
+      <c r="J374"/>
+      <c r="K374"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>97</v>
+      </c>
+      <c r="B375"/>
+      <c r="C375"/>
+      <c r="D375"/>
+      <c r="E375"/>
+      <c r="F375"/>
+      <c r="G375"/>
+      <c r="H375"/>
+      <c r="I375">
+        <v>586</v>
+      </c>
+      <c r="J375"/>
+      <c r="K375"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>98</v>
+      </c>
+      <c r="B376"/>
+      <c r="C376"/>
+      <c r="D376"/>
+      <c r="E376"/>
+      <c r="F376"/>
+      <c r="G376"/>
+      <c r="H376"/>
+      <c r="I376">
+        <v>588</v>
+      </c>
+      <c r="J376"/>
+      <c r="K376"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>99</v>
+      </c>
+      <c r="B377"/>
+      <c r="C377">
+        <v>597</v>
+      </c>
+      <c r="D377"/>
+      <c r="E377"/>
+      <c r="F377"/>
+      <c r="G377"/>
+      <c r="H377"/>
+      <c r="I377"/>
+      <c r="J377"/>
+      <c r="K377"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>100</v>
+      </c>
+      <c r="B378"/>
+      <c r="C378"/>
+      <c r="D378"/>
+      <c r="E378"/>
+      <c r="F378">
+        <v>632</v>
+      </c>
+      <c r="G378"/>
+      <c r="H378"/>
+      <c r="I378"/>
+      <c r="J378"/>
+      <c r="K378"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>101</v>
+      </c>
+      <c r="B379"/>
+      <c r="C379"/>
+      <c r="D379"/>
+      <c r="E379"/>
+      <c r="F379"/>
+      <c r="G379"/>
+      <c r="H379"/>
+      <c r="I379" s="3">
+        <v>720</v>
+      </c>
+      <c r="J379"/>
+      <c r="K379"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>102</v>
+      </c>
+      <c r="B380">
+        <v>725</v>
+      </c>
+      <c r="C380"/>
+      <c r="D380"/>
+      <c r="E380"/>
+      <c r="F380"/>
+      <c r="G380"/>
+      <c r="H380"/>
+      <c r="I380"/>
+      <c r="J380"/>
+      <c r="K380"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>103</v>
+      </c>
+      <c r="B381">
+        <v>740</v>
+      </c>
+      <c r="C381"/>
+      <c r="D381"/>
+      <c r="E381"/>
+      <c r="F381"/>
+      <c r="G381"/>
+      <c r="H381"/>
+      <c r="I381"/>
+      <c r="J381"/>
+      <c r="K381"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>104</v>
+      </c>
+      <c r="B382"/>
+      <c r="C382"/>
+      <c r="D382"/>
+      <c r="E382"/>
+      <c r="F382"/>
+      <c r="G382"/>
+      <c r="H382"/>
+      <c r="I382">
+        <v>744</v>
+      </c>
+      <c r="J382"/>
+      <c r="K382"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>105</v>
+      </c>
+      <c r="B383">
+        <v>750</v>
+      </c>
+      <c r="C383"/>
+      <c r="D383"/>
+      <c r="E383"/>
+      <c r="F383"/>
+      <c r="G383"/>
+      <c r="H383"/>
+      <c r="I383"/>
+      <c r="J383"/>
+      <c r="K383"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>106</v>
+      </c>
+      <c r="B384"/>
+      <c r="C384"/>
+      <c r="D384"/>
+      <c r="E384"/>
+      <c r="F384"/>
+      <c r="G384"/>
+      <c r="H384"/>
+      <c r="I384">
+        <v>753</v>
+      </c>
+      <c r="J384"/>
+      <c r="K384"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>107</v>
+      </c>
+      <c r="B385">
+        <v>754</v>
+      </c>
+      <c r="C385"/>
+      <c r="D385"/>
+      <c r="E385"/>
+      <c r="F385"/>
+      <c r="G385"/>
+      <c r="H385"/>
+      <c r="I385"/>
+      <c r="J385"/>
+      <c r="K385"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>108</v>
+      </c>
+      <c r="B386"/>
+      <c r="C386"/>
+      <c r="D386"/>
+      <c r="E386">
+        <v>757</v>
+      </c>
+      <c r="F386"/>
+      <c r="G386"/>
+      <c r="H386"/>
+      <c r="I386"/>
+      <c r="J386"/>
+      <c r="K386"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>109</v>
+      </c>
+      <c r="B387">
+        <v>758</v>
+      </c>
+      <c r="C387"/>
+      <c r="D387"/>
+      <c r="E387"/>
+      <c r="F387"/>
+      <c r="G387"/>
+      <c r="H387"/>
+      <c r="I387"/>
+      <c r="J387"/>
+      <c r="K387"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>110</v>
+      </c>
+      <c r="B388" s="3">
+        <v>764</v>
+      </c>
+      <c r="C388"/>
+      <c r="D388"/>
+      <c r="E388"/>
+      <c r="F388"/>
+      <c r="G388"/>
+      <c r="H388"/>
+      <c r="I388"/>
+      <c r="J388"/>
+      <c r="K388"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>111</v>
+      </c>
+      <c r="B389"/>
+      <c r="C389"/>
+      <c r="D389"/>
+      <c r="E389"/>
+      <c r="F389"/>
+      <c r="G389"/>
+      <c r="H389"/>
+      <c r="I389">
+        <v>766</v>
+      </c>
+      <c r="J389"/>
+      <c r="K389"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>112</v>
+      </c>
+      <c r="B390"/>
+      <c r="C390"/>
+      <c r="D390"/>
+      <c r="E390"/>
+      <c r="F390"/>
+      <c r="G390"/>
+      <c r="H390">
+        <v>781</v>
+      </c>
+      <c r="I390"/>
+      <c r="J390"/>
+      <c r="K390"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>113</v>
+      </c>
+      <c r="B391"/>
+      <c r="C391"/>
+      <c r="D391"/>
+      <c r="E391"/>
+      <c r="F391"/>
+      <c r="G391"/>
+      <c r="H391"/>
+      <c r="I391">
+        <v>2</v>
+      </c>
+      <c r="J391"/>
+      <c r="K391"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>114</v>
+      </c>
+      <c r="B392"/>
+      <c r="C392"/>
+      <c r="D392"/>
+      <c r="E392"/>
+      <c r="F392"/>
+      <c r="G392">
+        <v>4</v>
+      </c>
+      <c r="H392"/>
+      <c r="I392"/>
+      <c r="J392"/>
+      <c r="K392"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>115</v>
+      </c>
+      <c r="B393">
+        <v>5</v>
+      </c>
+      <c r="C393"/>
+      <c r="D393"/>
+      <c r="E393"/>
+      <c r="F393"/>
+      <c r="G393"/>
+      <c r="H393"/>
+      <c r="I393"/>
+      <c r="J393"/>
+      <c r="K393"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>116</v>
+      </c>
+      <c r="B394"/>
+      <c r="C394"/>
+      <c r="D394"/>
+      <c r="E394"/>
+      <c r="F394"/>
+      <c r="G394">
+        <v>10</v>
+      </c>
+      <c r="H394"/>
+      <c r="I394"/>
+      <c r="J394"/>
+      <c r="K394"/>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>117</v>
+      </c>
+      <c r="B395"/>
+      <c r="C395"/>
+      <c r="D395"/>
+      <c r="E395"/>
+      <c r="F395"/>
+      <c r="G395"/>
+      <c r="H395"/>
+      <c r="I395">
+        <v>14</v>
+      </c>
+      <c r="J395"/>
+      <c r="K395"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>118</v>
+      </c>
+      <c r="B396"/>
+      <c r="C396"/>
+      <c r="D396"/>
+      <c r="E396"/>
+      <c r="F396"/>
+      <c r="G396"/>
+      <c r="H396"/>
+      <c r="I396" s="3">
+        <v>33</v>
+      </c>
+      <c r="J396"/>
+      <c r="K396"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>119</v>
+      </c>
+      <c r="B397">
+        <v>34</v>
+      </c>
+      <c r="C397"/>
+      <c r="D397"/>
+      <c r="E397"/>
+      <c r="F397"/>
+      <c r="G397"/>
+      <c r="H397"/>
+      <c r="I397"/>
+      <c r="J397"/>
+      <c r="K397"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>120</v>
+      </c>
+      <c r="B398">
+        <v>36</v>
+      </c>
+      <c r="C398"/>
+      <c r="D398"/>
+      <c r="E398"/>
+      <c r="F398"/>
+      <c r="G398"/>
+      <c r="H398"/>
+      <c r="I398"/>
+      <c r="J398"/>
+      <c r="K398"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>121</v>
+      </c>
+      <c r="B399" s="3">
+        <v>37</v>
+      </c>
+      <c r="C399"/>
+      <c r="D399"/>
+      <c r="E399"/>
+      <c r="F399"/>
+      <c r="G399"/>
+      <c r="H399"/>
+      <c r="I399"/>
+      <c r="J399"/>
+      <c r="K399"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>122</v>
+      </c>
+      <c r="B400"/>
+      <c r="C400"/>
+      <c r="D400"/>
+      <c r="E400"/>
+      <c r="F400"/>
+      <c r="G400">
+        <v>44</v>
+      </c>
+      <c r="H400"/>
+      <c r="I400"/>
+      <c r="J400"/>
+      <c r="K400"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>123</v>
+      </c>
+      <c r="B401">
+        <v>49</v>
+      </c>
+      <c r="C401"/>
+      <c r="D401"/>
+      <c r="E401"/>
+      <c r="F401"/>
+      <c r="G401"/>
+      <c r="H401"/>
+      <c r="I401"/>
+      <c r="J401"/>
+      <c r="K401"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>124</v>
+      </c>
+      <c r="B402"/>
+      <c r="C402"/>
+      <c r="D402"/>
+      <c r="E402"/>
+      <c r="F402"/>
+      <c r="G402"/>
+      <c r="H402"/>
+      <c r="I402">
+        <v>52</v>
+      </c>
+      <c r="J402"/>
+      <c r="K402"/>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>125</v>
+      </c>
+      <c r="B403"/>
+      <c r="C403" s="3">
+        <v>55</v>
+      </c>
+      <c r="D403"/>
+      <c r="E403"/>
+      <c r="F403"/>
+      <c r="G403"/>
+      <c r="H403"/>
+      <c r="I403"/>
+      <c r="J403"/>
+      <c r="K403"/>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>126</v>
+      </c>
+      <c r="B404">
+        <v>58</v>
+      </c>
+      <c r="C404"/>
+      <c r="D404"/>
+      <c r="E404"/>
+      <c r="F404"/>
+      <c r="G404"/>
+      <c r="H404"/>
+      <c r="I404"/>
+      <c r="J404"/>
+      <c r="K404"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>127</v>
+      </c>
+      <c r="B405"/>
+      <c r="C405"/>
+      <c r="D405"/>
+      <c r="E405"/>
+      <c r="F405">
+        <v>62</v>
+      </c>
+      <c r="G405"/>
+      <c r="H405"/>
+      <c r="I405"/>
+      <c r="J405"/>
+      <c r="K405"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>128</v>
+      </c>
+      <c r="B406"/>
+      <c r="C406"/>
+      <c r="D406"/>
+      <c r="E406"/>
+      <c r="F406">
+        <v>63</v>
+      </c>
+      <c r="G406"/>
+      <c r="H406"/>
+      <c r="I406"/>
+      <c r="J406"/>
+      <c r="K406"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>129</v>
+      </c>
+      <c r="B407"/>
+      <c r="C407"/>
+      <c r="D407"/>
+      <c r="E407"/>
+      <c r="F407"/>
+      <c r="G407">
+        <v>64</v>
+      </c>
+      <c r="H407"/>
+      <c r="I407"/>
+      <c r="J407"/>
+      <c r="K407"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>130</v>
+      </c>
+      <c r="B408"/>
+      <c r="C408"/>
+      <c r="D408"/>
+      <c r="E408"/>
+      <c r="F408">
+        <v>67</v>
+      </c>
+      <c r="G408"/>
+      <c r="H408"/>
+      <c r="I408"/>
+      <c r="J408"/>
+      <c r="K408"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>131</v>
+      </c>
+      <c r="B409">
+        <v>69</v>
+      </c>
+      <c r="C409"/>
+      <c r="D409"/>
+      <c r="E409"/>
+      <c r="F409"/>
+      <c r="G409"/>
+      <c r="H409"/>
+      <c r="I409"/>
+      <c r="J409"/>
+      <c r="K409"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>132</v>
+      </c>
+      <c r="B410"/>
+      <c r="C410"/>
+      <c r="D410"/>
+      <c r="E410"/>
+      <c r="F410"/>
+      <c r="G410">
+        <v>70</v>
+      </c>
+      <c r="H410"/>
+      <c r="I410"/>
+      <c r="J410"/>
+      <c r="K410"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>133</v>
+      </c>
+      <c r="B411">
+        <v>78</v>
+      </c>
+      <c r="C411"/>
+      <c r="D411"/>
+      <c r="E411"/>
+      <c r="F411"/>
+      <c r="G411"/>
+      <c r="H411"/>
+      <c r="I411"/>
+      <c r="J411"/>
+      <c r="K411"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>134</v>
+      </c>
+      <c r="B412"/>
+      <c r="C412"/>
+      <c r="D412"/>
+      <c r="E412"/>
+      <c r="F412">
+        <v>80</v>
+      </c>
+      <c r="G412"/>
+      <c r="H412"/>
+      <c r="I412"/>
+      <c r="J412"/>
+      <c r="K412"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>135</v>
+      </c>
+      <c r="B413">
+        <v>98</v>
+      </c>
+      <c r="C413"/>
+      <c r="D413"/>
+      <c r="E413"/>
+      <c r="F413"/>
+      <c r="G413"/>
+      <c r="H413"/>
+      <c r="I413"/>
+      <c r="J413"/>
+      <c r="K413"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>136</v>
+      </c>
+      <c r="B414">
+        <v>101</v>
+      </c>
+      <c r="C414"/>
+      <c r="D414"/>
+      <c r="E414"/>
+      <c r="F414"/>
+      <c r="G414"/>
+      <c r="H414"/>
+      <c r="I414"/>
+      <c r="J414"/>
+      <c r="K414"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>137</v>
+      </c>
+      <c r="B415"/>
+      <c r="C415"/>
+      <c r="D415"/>
+      <c r="E415">
+        <v>102</v>
+      </c>
+      <c r="F415"/>
+      <c r="G415"/>
+      <c r="H415"/>
+      <c r="I415"/>
+      <c r="J415"/>
+      <c r="K415"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>138</v>
+      </c>
+      <c r="B416">
+        <v>103</v>
+      </c>
+      <c r="C416"/>
+      <c r="D416"/>
+      <c r="E416"/>
+      <c r="F416"/>
+      <c r="G416"/>
+      <c r="H416"/>
+      <c r="I416"/>
+      <c r="J416"/>
+      <c r="K416"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>139</v>
+      </c>
+      <c r="B417"/>
+      <c r="C417"/>
+      <c r="D417"/>
+      <c r="E417"/>
+      <c r="F417"/>
+      <c r="G417"/>
+      <c r="H417"/>
+      <c r="I417"/>
+      <c r="J417"/>
+      <c r="K417" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>140</v>
+      </c>
+      <c r="B418"/>
+      <c r="C418"/>
+      <c r="D418"/>
+      <c r="E418"/>
+      <c r="F418"/>
+      <c r="G418"/>
+      <c r="H418">
+        <v>106</v>
+      </c>
+      <c r="I418"/>
+      <c r="J418"/>
+      <c r="K418"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>141</v>
+      </c>
+      <c r="B419"/>
+      <c r="C419"/>
+      <c r="D419"/>
+      <c r="E419"/>
+      <c r="F419"/>
+      <c r="G419"/>
+      <c r="H419"/>
+      <c r="I419">
+        <v>109</v>
+      </c>
+      <c r="J419"/>
+      <c r="K419"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>142</v>
+      </c>
+      <c r="B420"/>
+      <c r="C420"/>
+      <c r="D420"/>
+      <c r="E420"/>
+      <c r="F420">
+        <v>110</v>
+      </c>
+      <c r="G420"/>
+      <c r="H420"/>
+      <c r="I420"/>
+      <c r="J420"/>
+      <c r="K420"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>143</v>
+      </c>
+      <c r="B421"/>
+      <c r="C421"/>
+      <c r="D421"/>
+      <c r="E421"/>
+      <c r="F421"/>
+      <c r="G421">
+        <v>111</v>
+      </c>
+      <c r="H421"/>
+      <c r="I421"/>
+      <c r="J421"/>
+      <c r="K421"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>144</v>
+      </c>
+      <c r="B422"/>
+      <c r="C422"/>
+      <c r="D422"/>
+      <c r="E422"/>
+      <c r="F422">
+        <v>113</v>
+      </c>
+      <c r="G422"/>
+      <c r="H422"/>
+      <c r="I422"/>
+      <c r="J422"/>
+      <c r="K422"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>145</v>
+      </c>
+      <c r="B423"/>
+      <c r="C423"/>
+      <c r="D423"/>
+      <c r="E423"/>
+      <c r="F423"/>
+      <c r="G423"/>
+      <c r="H423">
+        <v>114</v>
+      </c>
+      <c r="I423"/>
+      <c r="J423"/>
+      <c r="K423"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>146</v>
+      </c>
+      <c r="B424">
+        <v>116</v>
+      </c>
+      <c r="C424"/>
+      <c r="D424"/>
+      <c r="E424"/>
+      <c r="F424"/>
+      <c r="G424"/>
+      <c r="H424"/>
+      <c r="I424"/>
+      <c r="J424"/>
+      <c r="K424"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>147</v>
+      </c>
+      <c r="B425"/>
+      <c r="C425"/>
+      <c r="D425"/>
+      <c r="E425"/>
+      <c r="F425">
+        <v>117</v>
+      </c>
+      <c r="G425"/>
+      <c r="H425"/>
+      <c r="I425"/>
+      <c r="J425"/>
+      <c r="K425"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>148</v>
+      </c>
+      <c r="B426">
+        <v>120</v>
+      </c>
+      <c r="C426"/>
+      <c r="D426"/>
+      <c r="E426"/>
+      <c r="F426"/>
+      <c r="G426"/>
+      <c r="H426"/>
+      <c r="I426"/>
+      <c r="J426"/>
+      <c r="K426"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>149</v>
+      </c>
+      <c r="B427">
+        <v>123</v>
+      </c>
+      <c r="C427"/>
+      <c r="D427"/>
+      <c r="E427"/>
+      <c r="F427"/>
+      <c r="G427"/>
+      <c r="H427"/>
+      <c r="I427"/>
+      <c r="J427"/>
+      <c r="K427"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>150</v>
+      </c>
+      <c r="B428"/>
+      <c r="C428"/>
+      <c r="D428"/>
+      <c r="E428"/>
+      <c r="F428"/>
+      <c r="G428">
+        <v>124</v>
+      </c>
+      <c r="H428"/>
+      <c r="I428"/>
+      <c r="J428"/>
+      <c r="K428"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>151</v>
+      </c>
+      <c r="B429"/>
+      <c r="C429"/>
+      <c r="D429"/>
+      <c r="E429"/>
+      <c r="F429"/>
+      <c r="G429"/>
+      <c r="H429"/>
+      <c r="I429">
+        <v>125</v>
+      </c>
+      <c r="J429"/>
+      <c r="K429"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>152</v>
+      </c>
+      <c r="B430">
+        <v>126</v>
+      </c>
+      <c r="C430"/>
+      <c r="D430"/>
+      <c r="E430"/>
+      <c r="F430"/>
+      <c r="G430"/>
+      <c r="H430"/>
+      <c r="I430"/>
+      <c r="J430"/>
+      <c r="K430"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>153</v>
+      </c>
+      <c r="B431"/>
+      <c r="C431"/>
+      <c r="D431"/>
+      <c r="E431"/>
+      <c r="F431"/>
+      <c r="G431"/>
+      <c r="H431"/>
+      <c r="I431">
+        <v>128</v>
+      </c>
+      <c r="J431"/>
+      <c r="K431"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>154</v>
+      </c>
+      <c r="B432"/>
+      <c r="C432"/>
+      <c r="D432"/>
+      <c r="E432"/>
+      <c r="F432"/>
+      <c r="G432">
+        <v>130</v>
+      </c>
+      <c r="H432"/>
+      <c r="I432"/>
+      <c r="J432"/>
+      <c r="K432"/>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>155</v>
+      </c>
+      <c r="B433"/>
+      <c r="C433"/>
+      <c r="D433"/>
+      <c r="E433"/>
+      <c r="F433">
+        <v>133</v>
+      </c>
+      <c r="G433"/>
+      <c r="H433"/>
+      <c r="I433"/>
+      <c r="J433"/>
+      <c r="K433"/>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>156</v>
+      </c>
+      <c r="B434"/>
+      <c r="C434"/>
+      <c r="D434"/>
+      <c r="E434"/>
+      <c r="F434">
+        <v>136</v>
+      </c>
+      <c r="G434"/>
+      <c r="H434"/>
+      <c r="I434"/>
+      <c r="J434"/>
+      <c r="K434"/>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>157</v>
+      </c>
+      <c r="B435"/>
+      <c r="C435"/>
+      <c r="D435"/>
+      <c r="E435"/>
+      <c r="F435"/>
+      <c r="G435"/>
+      <c r="H435"/>
+      <c r="I435"/>
+      <c r="J435"/>
+      <c r="K435"/>
+      <c r="L435">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>158</v>
+      </c>
+      <c r="B436"/>
+      <c r="C436"/>
+      <c r="D436"/>
+      <c r="E436"/>
+      <c r="F436"/>
+      <c r="G436"/>
+      <c r="H436"/>
+      <c r="I436"/>
+      <c r="J436"/>
+      <c r="K436"/>
+      <c r="L436">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>159</v>
+      </c>
+      <c r="B437"/>
+      <c r="C437"/>
+      <c r="D437"/>
+      <c r="E437"/>
+      <c r="F437"/>
+      <c r="G437">
+        <v>148</v>
+      </c>
+      <c r="H437"/>
+      <c r="I437"/>
+      <c r="J437"/>
+      <c r="K437"/>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>160</v>
+      </c>
+      <c r="B438"/>
+      <c r="C438"/>
+      <c r="D438"/>
+      <c r="E438"/>
+      <c r="F438">
+        <v>149</v>
+      </c>
+      <c r="G438"/>
+      <c r="H438"/>
+      <c r="I438"/>
+      <c r="J438"/>
+      <c r="K438"/>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>161</v>
+      </c>
+      <c r="B439"/>
+      <c r="C439"/>
+      <c r="D439"/>
+      <c r="E439"/>
+      <c r="F439"/>
+      <c r="G439"/>
+      <c r="H439"/>
+      <c r="I439">
+        <v>151</v>
+      </c>
+      <c r="J439"/>
+      <c r="K439"/>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>162</v>
+      </c>
+      <c r="B440"/>
+      <c r="C440"/>
+      <c r="D440"/>
+      <c r="E440"/>
+      <c r="F440"/>
+      <c r="G440"/>
+      <c r="H440"/>
+      <c r="I440"/>
+      <c r="J440"/>
+      <c r="K440"/>
+      <c r="L440">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>163</v>
+      </c>
+      <c r="B441"/>
+      <c r="C441"/>
+      <c r="D441"/>
+      <c r="E441"/>
+      <c r="F441"/>
+      <c r="G441"/>
+      <c r="H441"/>
+      <c r="I441">
+        <v>155</v>
+      </c>
+      <c r="J441"/>
+      <c r="K441"/>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>164</v>
+      </c>
+      <c r="B442"/>
+      <c r="C442"/>
+      <c r="D442"/>
+      <c r="E442"/>
+      <c r="F442"/>
+      <c r="G442"/>
+      <c r="H442"/>
+      <c r="I442">
+        <v>161</v>
+      </c>
+      <c r="J442"/>
+      <c r="K442"/>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>165</v>
+      </c>
+      <c r="B443"/>
+      <c r="C443"/>
+      <c r="D443"/>
+      <c r="E443"/>
+      <c r="F443">
+        <v>163</v>
+      </c>
+      <c r="G443"/>
+      <c r="H443"/>
+      <c r="I443"/>
+      <c r="J443"/>
+      <c r="K443"/>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>9</v>
+      </c>
+      <c r="B444"/>
+      <c r="C444"/>
+      <c r="D444" s="3">
+        <v>9</v>
+      </c>
+      <c r="E444"/>
+      <c r="F444"/>
+      <c r="G444"/>
+      <c r="H444"/>
+      <c r="I444"/>
+      <c r="J444"/>
+      <c r="K444"/>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>11</v>
+      </c>
+      <c r="B445">
+        <v>11</v>
+      </c>
+      <c r="C445"/>
+      <c r="D445"/>
+      <c r="E445"/>
+      <c r="F445"/>
+      <c r="G445"/>
+      <c r="H445"/>
+      <c r="I445"/>
+      <c r="J445"/>
+      <c r="K445"/>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>13</v>
+      </c>
+      <c r="B446"/>
+      <c r="C446"/>
+      <c r="D446"/>
+      <c r="E446">
+        <v>13</v>
+      </c>
+      <c r="F446"/>
+      <c r="G446"/>
+      <c r="H446"/>
+      <c r="I446"/>
+      <c r="J446"/>
+      <c r="K446"/>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>20</v>
+      </c>
+      <c r="B447"/>
+      <c r="C447"/>
+      <c r="D447"/>
+      <c r="E447"/>
+      <c r="F447"/>
+      <c r="G447">
+        <v>20</v>
+      </c>
+      <c r="H447"/>
+      <c r="I447"/>
+      <c r="J447"/>
+      <c r="K447"/>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>34</v>
+      </c>
+      <c r="B448"/>
+      <c r="C448"/>
+      <c r="D448"/>
+      <c r="E448"/>
+      <c r="F448"/>
+      <c r="G448"/>
+      <c r="H448">
+        <v>34</v>
+      </c>
+      <c r="I448"/>
+      <c r="J448"/>
+      <c r="K448"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>36</v>
+      </c>
+      <c r="B449">
+        <v>36</v>
+      </c>
+      <c r="C449"/>
+      <c r="D449"/>
+      <c r="E449"/>
+      <c r="F449"/>
+      <c r="G449"/>
+      <c r="H449"/>
+      <c r="I449"/>
+      <c r="J449"/>
+      <c r="K449"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>39</v>
+      </c>
+      <c r="B450"/>
+      <c r="C450"/>
+      <c r="D450"/>
+      <c r="E450">
+        <v>39</v>
+      </c>
+      <c r="F450"/>
+      <c r="G450"/>
+      <c r="H450"/>
+      <c r="I450"/>
+      <c r="J450"/>
+      <c r="K450"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>45</v>
+      </c>
+      <c r="B451">
+        <v>45</v>
+      </c>
+      <c r="C451"/>
+      <c r="D451"/>
+      <c r="E451"/>
+      <c r="F451"/>
+      <c r="G451"/>
+      <c r="H451"/>
+      <c r="I451"/>
+      <c r="J451"/>
+      <c r="K451"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>48</v>
+      </c>
+      <c r="B452"/>
+      <c r="C452"/>
+      <c r="D452"/>
+      <c r="E452"/>
+      <c r="F452"/>
+      <c r="G452"/>
+      <c r="H452">
+        <v>48</v>
+      </c>
+      <c r="I452"/>
+      <c r="J452"/>
+      <c r="K452"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>56</v>
+      </c>
+      <c r="B453">
+        <v>56</v>
+      </c>
+      <c r="C453"/>
+      <c r="D453"/>
+      <c r="E453"/>
+      <c r="F453"/>
+      <c r="G453"/>
+      <c r="H453"/>
+      <c r="I453"/>
+      <c r="J453"/>
+      <c r="K453"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>57</v>
+      </c>
+      <c r="B454">
+        <v>57</v>
+      </c>
+      <c r="C454"/>
+      <c r="D454"/>
+      <c r="E454"/>
+      <c r="F454"/>
+      <c r="G454"/>
+      <c r="H454"/>
+      <c r="I454"/>
+      <c r="J454"/>
+      <c r="K454"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>61</v>
+      </c>
+      <c r="B455"/>
+      <c r="C455"/>
+      <c r="D455"/>
+      <c r="E455">
+        <v>61</v>
+      </c>
+      <c r="F455"/>
+      <c r="G455"/>
+      <c r="H455"/>
+      <c r="I455"/>
+      <c r="J455"/>
+      <c r="K455"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>66</v>
+      </c>
+      <c r="B456">
+        <v>66</v>
+      </c>
+      <c r="C456"/>
+      <c r="D456"/>
+      <c r="E456"/>
+      <c r="F456"/>
+      <c r="G456"/>
+      <c r="H456"/>
+      <c r="I456"/>
+      <c r="J456"/>
+      <c r="K456"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>70</v>
+      </c>
+      <c r="B457">
+        <v>70</v>
+      </c>
+      <c r="C457"/>
+      <c r="D457"/>
+      <c r="E457"/>
+      <c r="F457"/>
+      <c r="G457"/>
+      <c r="H457"/>
+      <c r="I457"/>
+      <c r="J457"/>
+      <c r="K457"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>76</v>
+      </c>
+      <c r="B458"/>
+      <c r="C458"/>
+      <c r="D458"/>
+      <c r="E458"/>
+      <c r="F458"/>
+      <c r="G458"/>
+      <c r="H458">
+        <v>76</v>
+      </c>
+      <c r="I458"/>
+      <c r="J458"/>
+      <c r="K458"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>78</v>
+      </c>
+      <c r="B459"/>
+      <c r="C459"/>
+      <c r="D459"/>
+      <c r="E459"/>
+      <c r="F459"/>
+      <c r="G459"/>
+      <c r="H459">
+        <v>78</v>
+      </c>
+      <c r="I459"/>
+      <c r="J459"/>
+      <c r="K459"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>92</v>
+      </c>
+      <c r="B460"/>
+      <c r="C460"/>
+      <c r="D460"/>
+      <c r="E460"/>
+      <c r="F460"/>
+      <c r="G460">
+        <v>92</v>
+      </c>
+      <c r="H460"/>
+      <c r="I460"/>
+      <c r="J460"/>
+      <c r="K460"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>105</v>
+      </c>
+      <c r="B461"/>
+      <c r="C461"/>
+      <c r="D461"/>
+      <c r="E461"/>
+      <c r="F461"/>
+      <c r="G461">
+        <v>105</v>
+      </c>
+      <c r="H461"/>
+      <c r="I461"/>
+      <c r="J461"/>
+      <c r="K461"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>109</v>
+      </c>
+      <c r="B462"/>
+      <c r="C462"/>
+      <c r="D462"/>
+      <c r="E462"/>
+      <c r="F462">
+        <v>109</v>
+      </c>
+      <c r="G462"/>
+      <c r="H462"/>
+      <c r="I462"/>
+      <c r="J462"/>
+      <c r="K462"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>115</v>
+      </c>
+      <c r="B463"/>
+      <c r="C463"/>
+      <c r="D463"/>
+      <c r="E463"/>
+      <c r="F463"/>
+      <c r="G463">
+        <v>115</v>
+      </c>
+      <c r="H463"/>
+      <c r="I463"/>
+      <c r="J463"/>
+      <c r="K463"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>117</v>
+      </c>
+      <c r="B464">
+        <v>117</v>
+      </c>
+      <c r="C464"/>
+      <c r="D464"/>
+      <c r="E464"/>
+      <c r="F464"/>
+      <c r="G464"/>
+      <c r="H464"/>
+      <c r="I464"/>
+      <c r="J464"/>
+      <c r="K464"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>119</v>
+      </c>
+      <c r="B465"/>
+      <c r="C465"/>
+      <c r="D465"/>
+      <c r="E465"/>
+      <c r="F465"/>
+      <c r="G465"/>
+      <c r="H465">
+        <v>119</v>
+      </c>
+      <c r="I465"/>
+      <c r="J465"/>
+      <c r="K465"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>121</v>
+      </c>
+      <c r="B466"/>
+      <c r="C466"/>
+      <c r="D466"/>
+      <c r="E466">
+        <v>121</v>
+      </c>
+      <c r="F466"/>
+      <c r="G466"/>
+      <c r="H466"/>
+      <c r="I466"/>
+      <c r="J466"/>
+      <c r="K466"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>123</v>
+      </c>
+      <c r="B467"/>
+      <c r="C467"/>
+      <c r="D467"/>
+      <c r="E467"/>
+      <c r="F467"/>
+      <c r="G467"/>
+      <c r="H467"/>
+      <c r="I467">
+        <v>123</v>
+      </c>
+      <c r="J467"/>
+      <c r="K467"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>130</v>
+      </c>
+      <c r="B468">
+        <v>130</v>
+      </c>
+      <c r="C468"/>
+      <c r="D468"/>
+      <c r="E468"/>
+      <c r="F468"/>
+      <c r="G468"/>
+      <c r="H468"/>
+      <c r="I468"/>
+      <c r="J468"/>
+      <c r="K468"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>144</v>
+      </c>
+      <c r="B469"/>
+      <c r="C469"/>
+      <c r="D469"/>
+      <c r="E469">
+        <v>144</v>
+      </c>
+      <c r="F469"/>
+      <c r="G469"/>
+      <c r="H469"/>
+      <c r="I469"/>
+      <c r="J469"/>
+      <c r="K469"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>157</v>
+      </c>
+      <c r="B470"/>
+      <c r="C470"/>
+      <c r="D470"/>
+      <c r="E470">
+        <v>157</v>
+      </c>
+      <c r="F470"/>
+      <c r="G470"/>
+      <c r="H470"/>
+      <c r="I470"/>
+      <c r="J470"/>
+      <c r="K470"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>160</v>
+      </c>
+      <c r="B471"/>
+      <c r="C471"/>
+      <c r="D471"/>
+      <c r="E471"/>
+      <c r="F471"/>
+      <c r="G471"/>
+      <c r="H471">
+        <v>160</v>
+      </c>
+      <c r="I471"/>
+      <c r="J471"/>
+      <c r="K471"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>164</v>
+      </c>
+      <c r="B472"/>
+      <c r="C472"/>
+      <c r="D472"/>
+      <c r="E472"/>
+      <c r="F472"/>
+      <c r="G472"/>
+      <c r="H472">
+        <v>164</v>
+      </c>
+      <c r="I472"/>
+      <c r="J472"/>
+      <c r="K472"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>165</v>
+      </c>
+      <c r="B473">
+        <v>165</v>
+      </c>
+      <c r="C473"/>
+      <c r="D473"/>
+      <c r="E473"/>
+      <c r="F473"/>
+      <c r="G473"/>
+      <c r="H473"/>
+      <c r="I473"/>
+      <c r="J473"/>
+      <c r="K473"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>168</v>
+      </c>
+      <c r="B474">
+        <v>168</v>
+      </c>
+      <c r="C474"/>
+      <c r="D474"/>
+      <c r="E474"/>
+      <c r="F474"/>
+      <c r="G474"/>
+      <c r="H474"/>
+      <c r="I474"/>
+      <c r="J474"/>
+      <c r="K474"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>169</v>
+      </c>
+      <c r="B475"/>
+      <c r="C475"/>
+      <c r="D475"/>
+      <c r="E475"/>
+      <c r="F475"/>
+      <c r="G475"/>
+      <c r="H475">
+        <v>169</v>
+      </c>
+      <c r="I475"/>
+      <c r="J475"/>
+      <c r="K475"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>172</v>
+      </c>
+      <c r="B476">
+        <v>172</v>
+      </c>
+      <c r="C476"/>
+      <c r="D476"/>
+      <c r="E476"/>
+      <c r="F476"/>
+      <c r="G476"/>
+      <c r="H476"/>
+      <c r="I476"/>
+      <c r="J476"/>
+      <c r="K476"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>173</v>
+      </c>
+      <c r="B477">
+        <v>173</v>
+      </c>
+      <c r="C477"/>
+      <c r="D477"/>
+      <c r="E477"/>
+      <c r="F477"/>
+      <c r="G477"/>
+      <c r="H477"/>
+      <c r="I477"/>
+      <c r="J477"/>
+      <c r="K477"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>179</v>
+      </c>
+      <c r="B478">
+        <v>179</v>
+      </c>
+      <c r="C478"/>
+      <c r="D478"/>
+      <c r="E478"/>
+      <c r="F478"/>
+      <c r="G478"/>
+      <c r="H478"/>
+      <c r="I478"/>
+      <c r="J478"/>
+      <c r="K478"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>192</v>
+      </c>
+      <c r="B479">
+        <v>192</v>
+      </c>
+      <c r="C479"/>
+      <c r="D479"/>
+      <c r="E479"/>
+      <c r="F479"/>
+      <c r="G479"/>
+      <c r="H479"/>
+      <c r="I479"/>
+      <c r="J479"/>
+      <c r="K479"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>194</v>
+      </c>
+      <c r="B480"/>
+      <c r="C480"/>
+      <c r="D480"/>
+      <c r="E480"/>
+      <c r="F480"/>
+      <c r="G480"/>
+      <c r="H480" s="3">
+        <v>194</v>
+      </c>
+      <c r="I480"/>
+      <c r="J480"/>
+      <c r="K480"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>195</v>
+      </c>
+      <c r="B481"/>
+      <c r="C481"/>
+      <c r="D481"/>
+      <c r="E481"/>
+      <c r="F481"/>
+      <c r="G481"/>
+      <c r="H481">
+        <v>195</v>
+      </c>
+      <c r="I481"/>
+      <c r="J481"/>
+      <c r="K481"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>201</v>
+      </c>
+      <c r="B482">
+        <v>201</v>
+      </c>
+      <c r="C482"/>
+      <c r="D482"/>
+      <c r="E482"/>
+      <c r="F482"/>
+      <c r="G482"/>
+      <c r="H482"/>
+      <c r="I482"/>
+      <c r="J482"/>
+      <c r="K482"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>203</v>
+      </c>
+      <c r="B483">
+        <v>203</v>
+      </c>
+      <c r="C483"/>
+      <c r="D483"/>
+      <c r="E483"/>
+      <c r="F483"/>
+      <c r="G483"/>
+      <c r="H483"/>
+      <c r="I483"/>
+      <c r="J483"/>
+      <c r="K483"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>204</v>
+      </c>
+      <c r="B484">
+        <v>204</v>
+      </c>
+      <c r="C484"/>
+      <c r="D484"/>
+      <c r="E484"/>
+      <c r="F484"/>
+      <c r="G484"/>
+      <c r="H484"/>
+      <c r="I484"/>
+      <c r="J484"/>
+      <c r="K484"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>222</v>
+      </c>
+      <c r="B485">
+        <v>222</v>
+      </c>
+      <c r="C485"/>
+      <c r="D485"/>
+      <c r="E485"/>
+      <c r="F485"/>
+      <c r="G485"/>
+      <c r="H485"/>
+      <c r="I485"/>
+      <c r="J485"/>
+      <c r="K485"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>224</v>
+      </c>
+      <c r="B486">
+        <v>224</v>
+      </c>
+      <c r="C486"/>
+      <c r="D486"/>
+      <c r="E486"/>
+      <c r="F486"/>
+      <c r="G486"/>
+      <c r="H486"/>
+      <c r="I486"/>
+      <c r="J486"/>
+      <c r="K486"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>225</v>
+      </c>
+      <c r="B487"/>
+      <c r="C487"/>
+      <c r="D487"/>
+      <c r="E487"/>
+      <c r="F487"/>
+      <c r="G487"/>
+      <c r="H487">
+        <v>225</v>
+      </c>
+      <c r="I487"/>
+      <c r="J487"/>
+      <c r="K487"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>227</v>
+      </c>
+      <c r="B488">
+        <v>227</v>
+      </c>
+      <c r="C488"/>
+      <c r="D488"/>
+      <c r="E488"/>
+      <c r="F488"/>
+      <c r="G488"/>
+      <c r="H488"/>
+      <c r="I488"/>
+      <c r="J488"/>
+      <c r="K488"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>231</v>
+      </c>
+      <c r="B489">
+        <v>231</v>
+      </c>
+      <c r="C489"/>
+      <c r="D489"/>
+      <c r="E489"/>
+      <c r="F489"/>
+      <c r="G489"/>
+      <c r="H489"/>
+      <c r="I489"/>
+      <c r="J489"/>
+      <c r="K489"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>237</v>
+      </c>
+      <c r="B490">
+        <v>237</v>
+      </c>
+      <c r="C490"/>
+      <c r="D490"/>
+      <c r="E490"/>
+      <c r="F490"/>
+      <c r="G490"/>
+      <c r="H490"/>
+      <c r="I490"/>
+      <c r="J490"/>
+      <c r="K490"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>239</v>
+      </c>
+      <c r="B491"/>
+      <c r="C491">
+        <v>239</v>
+      </c>
+      <c r="D491"/>
+      <c r="E491"/>
+      <c r="F491"/>
+      <c r="G491"/>
+      <c r="H491"/>
+      <c r="I491"/>
+      <c r="J491"/>
+      <c r="K491"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>250</v>
+      </c>
+      <c r="B492">
+        <v>250</v>
+      </c>
+      <c r="C492"/>
+      <c r="D492"/>
+      <c r="E492"/>
+      <c r="F492"/>
+      <c r="G492"/>
+      <c r="H492"/>
+      <c r="I492"/>
+      <c r="J492"/>
+      <c r="K492"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>251</v>
+      </c>
+      <c r="B493"/>
+      <c r="C493"/>
+      <c r="D493"/>
+      <c r="E493"/>
+      <c r="F493"/>
+      <c r="G493"/>
+      <c r="H493"/>
+      <c r="I493" s="3">
+        <v>251</v>
+      </c>
+      <c r="J493"/>
+      <c r="K493"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>253</v>
+      </c>
+      <c r="B494">
+        <v>253</v>
+      </c>
+      <c r="C494"/>
+      <c r="D494"/>
+      <c r="E494"/>
+      <c r="F494"/>
+      <c r="G494"/>
+      <c r="H494"/>
+      <c r="I494"/>
+      <c r="J494"/>
+      <c r="K494"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>267</v>
+      </c>
+      <c r="B495"/>
+      <c r="C495"/>
+      <c r="D495"/>
+      <c r="E495"/>
+      <c r="F495"/>
+      <c r="G495"/>
+      <c r="H495">
+        <v>267</v>
+      </c>
+      <c r="I495"/>
+      <c r="J495"/>
+      <c r="K495"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>270</v>
+      </c>
+      <c r="B496">
+        <v>270</v>
+      </c>
+      <c r="C496"/>
+      <c r="D496"/>
+      <c r="E496"/>
+      <c r="F496"/>
+      <c r="G496"/>
+      <c r="H496"/>
+      <c r="I496"/>
+      <c r="J496"/>
+      <c r="K496"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>274</v>
+      </c>
+      <c r="B497">
+        <v>274</v>
+      </c>
+      <c r="C497"/>
+      <c r="D497"/>
+      <c r="E497"/>
+      <c r="F497"/>
+      <c r="G497"/>
+      <c r="H497"/>
+      <c r="I497"/>
+      <c r="J497"/>
+      <c r="K497"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>283</v>
+      </c>
+      <c r="B498">
+        <v>283</v>
+      </c>
+      <c r="C498"/>
+      <c r="D498"/>
+      <c r="E498"/>
+      <c r="F498"/>
+      <c r="G498"/>
+      <c r="H498"/>
+      <c r="I498"/>
+      <c r="J498"/>
+      <c r="K498"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>286</v>
+      </c>
+      <c r="B499">
+        <v>286</v>
+      </c>
+      <c r="C499"/>
+      <c r="D499"/>
+      <c r="E499"/>
+      <c r="F499"/>
+      <c r="G499"/>
+      <c r="H499"/>
+      <c r="I499"/>
+      <c r="J499"/>
+      <c r="K499"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>287</v>
+      </c>
+      <c r="B500"/>
+      <c r="C500"/>
+      <c r="D500"/>
+      <c r="E500"/>
+      <c r="F500"/>
+      <c r="G500"/>
+      <c r="H500">
+        <v>287</v>
+      </c>
+      <c r="I500"/>
+      <c r="J500"/>
+      <c r="K500"/>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>288</v>
+      </c>
+      <c r="B501"/>
+      <c r="C501"/>
+      <c r="D501"/>
+      <c r="E501">
+        <v>288</v>
+      </c>
+      <c r="F501"/>
+      <c r="G501"/>
+      <c r="H501"/>
+      <c r="I501"/>
+      <c r="J501"/>
+      <c r="K501"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>298</v>
+      </c>
+      <c r="B502">
+        <v>298</v>
+      </c>
+      <c r="C502"/>
+      <c r="D502"/>
+      <c r="E502"/>
+      <c r="F502"/>
+      <c r="G502"/>
+      <c r="H502"/>
+      <c r="I502"/>
+      <c r="J502"/>
+      <c r="K502"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>300</v>
+      </c>
+      <c r="B503">
+        <v>300</v>
+      </c>
+      <c r="C503"/>
+      <c r="D503"/>
+      <c r="E503"/>
+      <c r="F503"/>
+      <c r="G503"/>
+      <c r="H503"/>
+      <c r="I503"/>
+      <c r="J503"/>
+      <c r="K503"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>316</v>
+      </c>
+      <c r="B504"/>
+      <c r="C504"/>
+      <c r="D504"/>
+      <c r="E504"/>
+      <c r="F504"/>
+      <c r="G504"/>
+      <c r="H504">
+        <v>316</v>
+      </c>
+      <c r="I504"/>
+      <c r="J504"/>
+      <c r="K504"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>317</v>
+      </c>
+      <c r="B505"/>
+      <c r="C505"/>
+      <c r="D505"/>
+      <c r="E505">
+        <v>317</v>
+      </c>
+      <c r="F505"/>
+      <c r="G505"/>
+      <c r="H505"/>
+      <c r="I505"/>
+      <c r="J505"/>
+      <c r="K505"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>320</v>
+      </c>
+      <c r="B506">
+        <v>320</v>
+      </c>
+      <c r="C506"/>
+      <c r="D506"/>
+      <c r="E506"/>
+      <c r="F506"/>
+      <c r="G506"/>
+      <c r="H506"/>
+      <c r="I506"/>
+      <c r="J506"/>
+      <c r="K506"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>321</v>
+      </c>
+      <c r="B507"/>
+      <c r="C507"/>
+      <c r="D507"/>
+      <c r="E507"/>
+      <c r="F507"/>
+      <c r="G507"/>
+      <c r="H507"/>
+      <c r="I507" s="3">
+        <v>321</v>
+      </c>
+      <c r="J507"/>
+      <c r="K507"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>326</v>
+      </c>
+      <c r="B508">
+        <v>326</v>
+      </c>
+      <c r="C508"/>
+      <c r="D508"/>
+      <c r="E508"/>
+      <c r="F508"/>
+      <c r="G508"/>
+      <c r="H508"/>
+      <c r="I508"/>
+      <c r="J508"/>
+      <c r="K508"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>329</v>
+      </c>
+      <c r="B509">
+        <v>329</v>
+      </c>
+      <c r="C509"/>
+      <c r="D509"/>
+      <c r="E509"/>
+      <c r="F509"/>
+      <c r="G509"/>
+      <c r="H509"/>
+      <c r="I509"/>
+      <c r="J509"/>
+      <c r="K509"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>331</v>
+      </c>
+      <c r="B510">
+        <v>331</v>
+      </c>
+      <c r="C510"/>
+      <c r="D510"/>
+      <c r="E510"/>
+      <c r="F510"/>
+      <c r="G510"/>
+      <c r="H510"/>
+      <c r="I510"/>
+      <c r="J510"/>
+      <c r="K510"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>332</v>
+      </c>
+      <c r="B511">
+        <v>332</v>
+      </c>
+      <c r="C511"/>
+      <c r="D511"/>
+      <c r="E511"/>
+      <c r="F511"/>
+      <c r="G511"/>
+      <c r="H511"/>
+      <c r="I511"/>
+      <c r="J511"/>
+      <c r="K511"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>339</v>
+      </c>
+      <c r="B512"/>
+      <c r="C512"/>
+      <c r="D512"/>
+      <c r="E512"/>
+      <c r="F512"/>
+      <c r="G512"/>
+      <c r="H512">
+        <v>339</v>
+      </c>
+      <c r="I512"/>
+      <c r="J512"/>
+      <c r="K512"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>343</v>
+      </c>
+      <c r="B513">
+        <v>343</v>
+      </c>
+      <c r="C513"/>
+      <c r="D513"/>
+      <c r="E513"/>
+      <c r="F513"/>
+      <c r="G513"/>
+      <c r="H513"/>
+      <c r="I513"/>
+      <c r="J513"/>
+      <c r="K513"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>349</v>
+      </c>
+      <c r="B514"/>
+      <c r="C514"/>
+      <c r="D514"/>
+      <c r="E514"/>
+      <c r="F514"/>
+      <c r="G514" s="3">
+        <v>349</v>
+      </c>
+      <c r="H514"/>
+      <c r="I514"/>
+      <c r="J514"/>
+      <c r="K514"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>350</v>
+      </c>
+      <c r="B515">
+        <v>350</v>
+      </c>
+      <c r="C515"/>
+      <c r="D515"/>
+      <c r="E515"/>
+      <c r="F515"/>
+      <c r="G515"/>
+      <c r="H515"/>
+      <c r="I515"/>
+      <c r="J515"/>
+      <c r="K515"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>353</v>
+      </c>
+      <c r="B516"/>
+      <c r="C516"/>
+      <c r="D516"/>
+      <c r="E516"/>
+      <c r="F516">
+        <v>353</v>
+      </c>
+      <c r="G516"/>
+      <c r="H516"/>
+      <c r="I516"/>
+      <c r="J516"/>
+      <c r="K516"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>357</v>
+      </c>
+      <c r="B517"/>
+      <c r="C517"/>
+      <c r="D517"/>
+      <c r="E517">
+        <v>357</v>
+      </c>
+      <c r="F517"/>
+      <c r="G517"/>
+      <c r="H517"/>
+      <c r="I517"/>
+      <c r="J517"/>
+      <c r="K517"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>359</v>
+      </c>
+      <c r="B518"/>
+      <c r="C518"/>
+      <c r="D518"/>
+      <c r="E518"/>
+      <c r="F518"/>
+      <c r="G518"/>
+      <c r="H518">
+        <v>359</v>
+      </c>
+      <c r="I518"/>
+      <c r="J518"/>
+      <c r="K518"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>364</v>
+      </c>
+      <c r="B519"/>
+      <c r="C519"/>
+      <c r="D519"/>
+      <c r="E519"/>
+      <c r="F519">
+        <v>364</v>
+      </c>
+      <c r="G519"/>
+      <c r="H519"/>
+      <c r="I519"/>
+      <c r="J519"/>
+      <c r="K519"/>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>365</v>
+      </c>
+      <c r="B520">
+        <v>365</v>
+      </c>
+      <c r="C520"/>
+      <c r="D520"/>
+      <c r="E520"/>
+      <c r="F520"/>
+      <c r="G520"/>
+      <c r="H520"/>
+      <c r="I520"/>
+      <c r="J520"/>
+      <c r="K520"/>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>366</v>
+      </c>
+      <c r="B521" s="3">
+        <v>366</v>
+      </c>
+      <c r="C521"/>
+      <c r="D521"/>
+      <c r="E521"/>
+      <c r="F521"/>
+      <c r="G521"/>
+      <c r="H521"/>
+      <c r="I521"/>
+      <c r="J521"/>
+      <c r="K521"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>368</v>
+      </c>
+      <c r="B522"/>
+      <c r="C522"/>
+      <c r="D522"/>
+      <c r="E522"/>
+      <c r="F522">
+        <v>368</v>
+      </c>
+      <c r="G522"/>
+      <c r="H522"/>
+      <c r="I522"/>
+      <c r="J522"/>
+      <c r="K522"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>371</v>
+      </c>
+      <c r="B523"/>
+      <c r="C523"/>
+      <c r="D523"/>
+      <c r="E523"/>
+      <c r="F523"/>
+      <c r="G523"/>
+      <c r="H523">
+        <v>371</v>
+      </c>
+      <c r="I523"/>
+      <c r="J523"/>
+      <c r="K523"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>381</v>
+      </c>
+      <c r="B524"/>
+      <c r="C524"/>
+      <c r="D524"/>
+      <c r="E524"/>
+      <c r="F524"/>
+      <c r="G524"/>
+      <c r="H524"/>
+      <c r="I524" s="3">
+        <v>381</v>
+      </c>
+      <c r="J524"/>
+      <c r="K524"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>382</v>
+      </c>
+      <c r="B525">
+        <v>382</v>
+      </c>
+      <c r="C525"/>
+      <c r="D525"/>
+      <c r="E525"/>
+      <c r="F525"/>
+      <c r="G525"/>
+      <c r="H525"/>
+      <c r="I525"/>
+      <c r="J525"/>
+      <c r="K525"/>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>384</v>
+      </c>
+      <c r="B526">
+        <v>384</v>
+      </c>
+      <c r="C526"/>
+      <c r="D526"/>
+      <c r="E526"/>
+      <c r="F526"/>
+      <c r="G526"/>
+      <c r="H526"/>
+      <c r="I526"/>
+      <c r="J526"/>
+      <c r="K526"/>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>392</v>
+      </c>
+      <c r="B527"/>
+      <c r="C527">
+        <v>392</v>
+      </c>
+      <c r="D527"/>
+      <c r="E527"/>
+      <c r="F527"/>
+      <c r="G527"/>
+      <c r="H527"/>
+      <c r="I527"/>
+      <c r="J527"/>
+      <c r="K527"/>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>395</v>
+      </c>
+      <c r="B528">
+        <v>395</v>
+      </c>
+      <c r="C528"/>
+      <c r="D528"/>
+      <c r="E528"/>
+      <c r="F528"/>
+      <c r="G528"/>
+      <c r="H528"/>
+      <c r="I528"/>
+      <c r="J528"/>
+      <c r="K528"/>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>397</v>
+      </c>
+      <c r="B529">
+        <v>397</v>
+      </c>
+      <c r="C529"/>
+      <c r="D529"/>
+      <c r="E529"/>
+      <c r="F529"/>
+      <c r="G529"/>
+      <c r="H529"/>
+      <c r="I529"/>
+      <c r="J529"/>
+      <c r="K529"/>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>398</v>
+      </c>
+      <c r="B530">
+        <v>398</v>
+      </c>
+      <c r="C530"/>
+      <c r="D530"/>
+      <c r="E530"/>
+      <c r="F530"/>
+      <c r="G530"/>
+      <c r="H530"/>
+      <c r="I530"/>
+      <c r="J530"/>
+      <c r="K530"/>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>406</v>
+      </c>
+      <c r="B531">
+        <v>406</v>
+      </c>
+      <c r="C531"/>
+      <c r="D531"/>
+      <c r="E531"/>
+      <c r="F531"/>
+      <c r="G531"/>
+      <c r="H531"/>
+      <c r="I531"/>
+      <c r="J531"/>
+      <c r="K531"/>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>408</v>
+      </c>
+      <c r="B532"/>
+      <c r="C532"/>
+      <c r="D532"/>
+      <c r="E532"/>
+      <c r="F532"/>
+      <c r="G532"/>
+      <c r="H532">
+        <v>408</v>
+      </c>
+      <c r="I532"/>
+      <c r="J532"/>
+      <c r="K532"/>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>414</v>
+      </c>
+      <c r="B533">
+        <v>414</v>
+      </c>
+      <c r="C533"/>
+      <c r="D533"/>
+      <c r="E533"/>
+      <c r="F533"/>
+      <c r="G533"/>
+      <c r="H533"/>
+      <c r="I533"/>
+      <c r="J533"/>
+      <c r="K533"/>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>416</v>
+      </c>
+      <c r="B534"/>
+      <c r="C534">
+        <v>416</v>
+      </c>
+      <c r="D534"/>
+      <c r="E534"/>
+      <c r="F534"/>
+      <c r="G534"/>
+      <c r="H534"/>
+      <c r="I534"/>
+      <c r="J534"/>
+      <c r="K534"/>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>420</v>
+      </c>
+      <c r="B535">
+        <v>420</v>
+      </c>
+      <c r="C535"/>
+      <c r="D535"/>
+      <c r="E535"/>
+      <c r="F535"/>
+      <c r="G535"/>
+      <c r="H535"/>
+      <c r="I535"/>
+      <c r="J535"/>
+      <c r="K535"/>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>422</v>
+      </c>
+      <c r="B536">
+        <v>422</v>
+      </c>
+      <c r="C536"/>
+      <c r="D536"/>
+      <c r="E536"/>
+      <c r="F536"/>
+      <c r="G536"/>
+      <c r="H536"/>
+      <c r="I536"/>
+      <c r="J536"/>
+      <c r="K536"/>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>425</v>
+      </c>
+      <c r="B537">
+        <v>425</v>
+      </c>
+      <c r="C537"/>
+      <c r="D537"/>
+      <c r="E537"/>
+      <c r="F537"/>
+      <c r="G537"/>
+      <c r="H537"/>
+      <c r="I537"/>
+      <c r="J537"/>
+      <c r="K537"/>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>433</v>
+      </c>
+      <c r="B538"/>
+      <c r="C538"/>
+      <c r="D538"/>
+      <c r="E538"/>
+      <c r="F538"/>
+      <c r="G538"/>
+      <c r="H538">
+        <v>433</v>
+      </c>
+      <c r="I538"/>
+      <c r="J538"/>
+      <c r="K538"/>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>442</v>
+      </c>
+      <c r="B539">
+        <v>442</v>
+      </c>
+      <c r="C539"/>
+      <c r="D539"/>
+      <c r="E539"/>
+      <c r="F539"/>
+      <c r="G539"/>
+      <c r="H539"/>
+      <c r="I539"/>
+      <c r="J539"/>
+      <c r="K539"/>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>443</v>
+      </c>
+      <c r="B540">
+        <v>443</v>
+      </c>
+      <c r="C540"/>
+      <c r="D540"/>
+      <c r="E540"/>
+      <c r="F540"/>
+      <c r="G540"/>
+      <c r="H540"/>
+      <c r="I540"/>
+      <c r="J540"/>
+      <c r="K540"/>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>446</v>
+      </c>
+      <c r="B541">
+        <v>446</v>
+      </c>
+      <c r="C541"/>
+      <c r="D541"/>
+      <c r="E541"/>
+      <c r="F541"/>
+      <c r="G541"/>
+      <c r="H541"/>
+      <c r="I541"/>
+      <c r="J541"/>
+      <c r="K541"/>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>453</v>
+      </c>
+      <c r="B542"/>
+      <c r="C542"/>
+      <c r="D542"/>
+      <c r="E542"/>
+      <c r="F542"/>
+      <c r="G542"/>
+      <c r="H542">
+        <v>453</v>
+      </c>
+      <c r="I542"/>
+      <c r="J542"/>
+      <c r="K542"/>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>463</v>
+      </c>
+      <c r="B543"/>
+      <c r="C543"/>
+      <c r="D543"/>
+      <c r="E543">
+        <v>463</v>
+      </c>
+      <c r="F543"/>
+      <c r="G543"/>
+      <c r="H543"/>
+      <c r="I543"/>
+      <c r="J543"/>
+      <c r="K543"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>466</v>
+      </c>
+      <c r="B544"/>
+      <c r="C544"/>
+      <c r="D544"/>
+      <c r="E544"/>
+      <c r="F544"/>
+      <c r="G544"/>
+      <c r="H544">
+        <v>466</v>
+      </c>
+      <c r="I544"/>
+      <c r="J544"/>
+      <c r="K544"/>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>478</v>
+      </c>
+      <c r="B545">
+        <v>478</v>
+      </c>
+      <c r="C545"/>
+      <c r="D545"/>
+      <c r="E545"/>
+      <c r="F545"/>
+      <c r="G545"/>
+      <c r="H545"/>
+      <c r="I545"/>
+      <c r="J545"/>
+      <c r="K545"/>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>479</v>
+      </c>
+      <c r="B546"/>
+      <c r="C546"/>
+      <c r="D546"/>
+      <c r="E546" s="3">
+        <v>479</v>
+      </c>
+      <c r="F546"/>
+      <c r="G546"/>
+      <c r="H546"/>
+      <c r="I546"/>
+      <c r="J546"/>
+      <c r="K546"/>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>480</v>
+      </c>
+      <c r="B547">
+        <v>480</v>
+      </c>
+      <c r="C547"/>
+      <c r="D547"/>
+      <c r="E547"/>
+      <c r="F547"/>
+      <c r="G547"/>
+      <c r="H547"/>
+      <c r="I547"/>
+      <c r="J547"/>
+      <c r="K547"/>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>485</v>
+      </c>
+      <c r="B548"/>
+      <c r="C548"/>
+      <c r="D548"/>
+      <c r="E548"/>
+      <c r="F548">
+        <v>485</v>
+      </c>
+      <c r="G548"/>
+      <c r="H548"/>
+      <c r="I548"/>
+      <c r="J548"/>
+      <c r="K548"/>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>487</v>
+      </c>
+      <c r="B549">
+        <v>487</v>
+      </c>
+      <c r="C549"/>
+      <c r="D549"/>
+      <c r="E549"/>
+      <c r="F549"/>
+      <c r="G549"/>
+      <c r="H549"/>
+      <c r="I549"/>
+      <c r="J549"/>
+      <c r="K549"/>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>489</v>
+      </c>
+      <c r="B550">
+        <v>489</v>
+      </c>
+      <c r="C550"/>
+      <c r="D550"/>
+      <c r="E550"/>
+      <c r="F550"/>
+      <c r="G550"/>
+      <c r="H550"/>
+      <c r="I550"/>
+      <c r="J550"/>
+      <c r="K550"/>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>490</v>
+      </c>
+      <c r="B551"/>
+      <c r="C551"/>
+      <c r="D551"/>
+      <c r="E551"/>
+      <c r="F551">
+        <v>490</v>
+      </c>
+      <c r="G551"/>
+      <c r="H551"/>
+      <c r="I551"/>
+      <c r="J551"/>
+      <c r="K551"/>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>500</v>
+      </c>
+      <c r="B552"/>
+      <c r="C552"/>
+      <c r="D552" s="3">
+        <v>500</v>
+      </c>
+      <c r="E552"/>
+      <c r="F552"/>
+      <c r="G552"/>
+      <c r="H552"/>
+      <c r="I552"/>
+      <c r="J552"/>
+      <c r="K552"/>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>501</v>
+      </c>
+      <c r="B553"/>
+      <c r="C553"/>
+      <c r="D553"/>
+      <c r="E553"/>
+      <c r="F553"/>
+      <c r="G553"/>
+      <c r="H553">
+        <v>501</v>
+      </c>
+      <c r="I553"/>
+      <c r="J553"/>
+      <c r="K553"/>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>504</v>
+      </c>
+      <c r="B554">
+        <v>504</v>
+      </c>
+      <c r="C554"/>
+      <c r="D554"/>
+      <c r="E554"/>
+      <c r="F554"/>
+      <c r="G554"/>
+      <c r="H554"/>
+      <c r="I554"/>
+      <c r="J554"/>
+      <c r="K554"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>505</v>
+      </c>
+      <c r="B555">
+        <v>505</v>
+      </c>
+      <c r="C555"/>
+      <c r="D555"/>
+      <c r="E555"/>
+      <c r="F555"/>
+      <c r="G555"/>
+      <c r="H555"/>
+      <c r="I555"/>
+      <c r="J555"/>
+      <c r="K555"/>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>509</v>
+      </c>
+      <c r="B556">
+        <v>509</v>
+      </c>
+      <c r="C556"/>
+      <c r="D556"/>
+      <c r="E556"/>
+      <c r="F556"/>
+      <c r="G556"/>
+      <c r="H556"/>
+      <c r="I556"/>
+      <c r="J556"/>
+      <c r="K556"/>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>512</v>
+      </c>
+      <c r="B557">
+        <v>512</v>
+      </c>
+      <c r="C557"/>
+      <c r="D557"/>
+      <c r="E557"/>
+      <c r="F557"/>
+      <c r="G557"/>
+      <c r="H557"/>
+      <c r="I557"/>
+      <c r="J557"/>
+      <c r="K557"/>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>513</v>
+      </c>
+      <c r="B558"/>
+      <c r="C558"/>
+      <c r="D558"/>
+      <c r="E558"/>
+      <c r="F558"/>
+      <c r="G558"/>
+      <c r="H558"/>
+      <c r="I558" s="3">
+        <v>513</v>
+      </c>
+      <c r="J558"/>
+      <c r="K558"/>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>517</v>
+      </c>
+      <c r="B559">
+        <v>517</v>
+      </c>
+      <c r="C559"/>
+      <c r="D559"/>
+      <c r="E559"/>
+      <c r="F559"/>
+      <c r="G559"/>
+      <c r="H559"/>
+      <c r="I559"/>
+      <c r="J559"/>
+      <c r="K559"/>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>520</v>
+      </c>
+      <c r="B560"/>
+      <c r="C560"/>
+      <c r="D560"/>
+      <c r="E560"/>
+      <c r="F560"/>
+      <c r="G560"/>
+      <c r="H560" s="3">
+        <v>520</v>
+      </c>
+      <c r="I560"/>
+      <c r="J560"/>
+      <c r="K560"/>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>522</v>
+      </c>
+      <c r="B561">
+        <v>522</v>
+      </c>
+      <c r="C561"/>
+      <c r="D561"/>
+      <c r="E561"/>
+      <c r="F561"/>
+      <c r="G561"/>
+      <c r="H561"/>
+      <c r="I561"/>
+      <c r="J561"/>
+      <c r="K561"/>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>530</v>
+      </c>
+      <c r="B562">
+        <v>530</v>
+      </c>
+      <c r="C562"/>
+      <c r="D562"/>
+      <c r="E562"/>
+      <c r="F562"/>
+      <c r="G562"/>
+      <c r="H562"/>
+      <c r="I562"/>
+      <c r="J562"/>
+      <c r="K562"/>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>539</v>
+      </c>
+      <c r="B563">
+        <v>539</v>
+      </c>
+      <c r="C563"/>
+      <c r="D563"/>
+      <c r="E563"/>
+      <c r="F563"/>
+      <c r="G563"/>
+      <c r="H563"/>
+      <c r="I563"/>
+      <c r="J563"/>
+      <c r="K563"/>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>540</v>
+      </c>
+      <c r="B564">
+        <v>540</v>
+      </c>
+      <c r="C564"/>
+      <c r="D564"/>
+      <c r="E564"/>
+      <c r="F564"/>
+      <c r="G564"/>
+      <c r="H564"/>
+      <c r="I564"/>
+      <c r="J564"/>
+      <c r="K564"/>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>541</v>
+      </c>
+      <c r="B565"/>
+      <c r="C565"/>
+      <c r="D565"/>
+      <c r="E565"/>
+      <c r="F565"/>
+      <c r="G565"/>
+      <c r="H565">
+        <v>541</v>
+      </c>
+      <c r="I565"/>
+      <c r="J565"/>
+      <c r="K565"/>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>543</v>
+      </c>
+      <c r="B566">
+        <v>543</v>
+      </c>
+      <c r="C566"/>
+      <c r="D566"/>
+      <c r="E566"/>
+      <c r="F566"/>
+      <c r="G566"/>
+      <c r="H566"/>
+      <c r="I566"/>
+      <c r="J566"/>
+      <c r="K566"/>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>544</v>
+      </c>
+      <c r="B567"/>
+      <c r="C567"/>
+      <c r="D567"/>
+      <c r="E567"/>
+      <c r="F567">
+        <v>544</v>
+      </c>
+      <c r="G567"/>
+      <c r="H567"/>
+      <c r="I567"/>
+      <c r="J567"/>
+      <c r="K567"/>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>547</v>
+      </c>
+      <c r="B568"/>
+      <c r="C568"/>
+      <c r="D568"/>
+      <c r="E568"/>
+      <c r="F568">
+        <v>547</v>
+      </c>
+      <c r="G568"/>
+      <c r="H568"/>
+      <c r="I568"/>
+      <c r="J568"/>
+      <c r="K568"/>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>549</v>
+      </c>
+      <c r="B569">
+        <v>549</v>
+      </c>
+      <c r="C569"/>
+      <c r="D569"/>
+      <c r="E569"/>
+      <c r="F569"/>
+      <c r="G569"/>
+      <c r="H569"/>
+      <c r="I569"/>
+      <c r="J569"/>
+      <c r="K569"/>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>550</v>
+      </c>
+      <c r="B570"/>
+      <c r="C570"/>
+      <c r="D570"/>
+      <c r="E570"/>
+      <c r="F570"/>
+      <c r="G570"/>
+      <c r="H570">
+        <v>550</v>
+      </c>
+      <c r="I570"/>
+      <c r="J570"/>
+      <c r="K570"/>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>555</v>
+      </c>
+      <c r="B571"/>
+      <c r="C571"/>
+      <c r="D571"/>
+      <c r="E571"/>
+      <c r="F571"/>
+      <c r="G571"/>
+      <c r="H571">
+        <v>555</v>
+      </c>
+      <c r="I571"/>
+      <c r="J571"/>
+      <c r="K571"/>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>557</v>
+      </c>
+      <c r="B572">
+        <v>557</v>
+      </c>
+      <c r="C572"/>
+      <c r="D572"/>
+      <c r="E572"/>
+      <c r="F572"/>
+      <c r="G572"/>
+      <c r="H572"/>
+      <c r="I572"/>
+      <c r="J572"/>
+      <c r="K572"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>558</v>
+      </c>
+      <c r="B573">
+        <v>558</v>
+      </c>
+      <c r="C573"/>
+      <c r="D573"/>
+      <c r="E573"/>
+      <c r="F573"/>
+      <c r="G573"/>
+      <c r="H573"/>
+      <c r="I573"/>
+      <c r="J573"/>
+      <c r="K573"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>560</v>
+      </c>
+      <c r="B574"/>
+      <c r="C574"/>
+      <c r="D574"/>
+      <c r="E574"/>
+      <c r="F574">
+        <v>560</v>
+      </c>
+      <c r="G574"/>
+      <c r="H574"/>
+      <c r="I574"/>
+      <c r="J574"/>
+      <c r="K574"/>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>561</v>
+      </c>
+      <c r="B575">
+        <v>561</v>
+      </c>
+      <c r="C575"/>
+      <c r="D575"/>
+      <c r="E575"/>
+      <c r="F575"/>
+      <c r="G575"/>
+      <c r="H575"/>
+      <c r="I575"/>
+      <c r="J575"/>
+      <c r="K575"/>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>566</v>
+      </c>
+      <c r="B576"/>
+      <c r="C576"/>
+      <c r="D576"/>
+      <c r="E576"/>
+      <c r="F576"/>
+      <c r="G576"/>
+      <c r="H576">
+        <v>566</v>
+      </c>
+      <c r="I576"/>
+      <c r="J576"/>
+      <c r="K576"/>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>573</v>
+      </c>
+      <c r="B577">
+        <v>573</v>
+      </c>
+      <c r="C577"/>
+      <c r="D577"/>
+      <c r="E577"/>
+      <c r="F577"/>
+      <c r="G577"/>
+      <c r="H577"/>
+      <c r="I577"/>
+      <c r="J577"/>
+      <c r="K577"/>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578"/>
+      <c r="C578"/>
+      <c r="D578"/>
+      <c r="E578"/>
+      <c r="F578">
+        <v>576</v>
+      </c>
+      <c r="G578"/>
+      <c r="H578"/>
+      <c r="I578"/>
+      <c r="J578"/>
+      <c r="K578"/>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579">
+        <v>577</v>
+      </c>
+      <c r="C579"/>
+      <c r="D579"/>
+      <c r="E579"/>
+      <c r="F579"/>
+      <c r="G579"/>
+      <c r="H579"/>
+      <c r="I579"/>
+      <c r="J579"/>
+      <c r="K579"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>583</v>
+      </c>
+      <c r="B580">
+        <v>583</v>
+      </c>
+      <c r="C580"/>
+      <c r="D580"/>
+      <c r="E580"/>
+      <c r="F580"/>
+      <c r="G580"/>
+      <c r="H580"/>
+      <c r="I580"/>
+      <c r="J580"/>
+      <c r="K580"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>593</v>
+      </c>
+      <c r="B581"/>
+      <c r="C581"/>
+      <c r="D581"/>
+      <c r="E581"/>
+      <c r="F581">
+        <v>593</v>
+      </c>
+      <c r="G581"/>
+      <c r="H581"/>
+      <c r="I581"/>
+      <c r="J581"/>
+      <c r="K581"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>595</v>
+      </c>
+      <c r="B582"/>
+      <c r="C582"/>
+      <c r="D582"/>
+      <c r="E582">
+        <v>595</v>
+      </c>
+      <c r="F582"/>
+      <c r="G582"/>
+      <c r="H582"/>
+      <c r="I582"/>
+      <c r="J582"/>
+      <c r="K582"/>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>597</v>
+      </c>
+      <c r="B583"/>
+      <c r="C583"/>
+      <c r="D583"/>
+      <c r="E583" s="3">
+        <v>597</v>
+      </c>
+      <c r="F583"/>
+      <c r="G583"/>
+      <c r="H583"/>
+      <c r="I583"/>
+      <c r="J583"/>
+      <c r="K583"/>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>598</v>
+      </c>
+      <c r="B584"/>
+      <c r="C584"/>
+      <c r="D584"/>
+      <c r="E584"/>
+      <c r="F584">
+        <v>598</v>
+      </c>
+      <c r="G584"/>
+      <c r="H584"/>
+      <c r="I584"/>
+      <c r="J584"/>
+      <c r="K584"/>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>621</v>
+      </c>
+      <c r="B585">
+        <v>621</v>
+      </c>
+      <c r="C585"/>
+      <c r="D585"/>
+      <c r="E585"/>
+      <c r="F585"/>
+      <c r="G585"/>
+      <c r="H585"/>
+      <c r="I585"/>
+      <c r="J585"/>
+      <c r="K585"/>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>622</v>
+      </c>
+      <c r="B586"/>
+      <c r="C586"/>
+      <c r="D586"/>
+      <c r="E586"/>
+      <c r="F586"/>
+      <c r="G586"/>
+      <c r="H586">
+        <v>622</v>
+      </c>
+      <c r="I586"/>
+      <c r="J586"/>
+      <c r="K586"/>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>627</v>
+      </c>
+      <c r="B587"/>
+      <c r="C587"/>
+      <c r="D587"/>
+      <c r="E587"/>
+      <c r="F587"/>
+      <c r="G587"/>
+      <c r="H587">
+        <v>627</v>
+      </c>
+      <c r="I587"/>
+      <c r="J587"/>
+      <c r="K587"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>634</v>
+      </c>
+      <c r="B588">
+        <v>634</v>
+      </c>
+      <c r="C588"/>
+      <c r="D588"/>
+      <c r="E588"/>
+      <c r="F588"/>
+      <c r="G588"/>
+      <c r="H588"/>
+      <c r="I588"/>
+      <c r="J588"/>
+      <c r="K588"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>639</v>
+      </c>
+      <c r="B589">
+        <v>639</v>
+      </c>
+      <c r="C589"/>
+      <c r="D589"/>
+      <c r="E589"/>
+      <c r="F589"/>
+      <c r="G589"/>
+      <c r="H589"/>
+      <c r="I589"/>
+      <c r="J589"/>
+      <c r="K589"/>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>652</v>
+      </c>
+      <c r="B590"/>
+      <c r="C590"/>
+      <c r="D590"/>
+      <c r="E590"/>
+      <c r="F590">
+        <v>652</v>
+      </c>
+      <c r="G590"/>
+      <c r="H590"/>
+      <c r="I590"/>
+      <c r="J590"/>
+      <c r="K590"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>655</v>
+      </c>
+      <c r="B591">
+        <v>655</v>
+      </c>
+      <c r="C591"/>
+      <c r="D591"/>
+      <c r="E591"/>
+      <c r="F591"/>
+      <c r="G591"/>
+      <c r="H591"/>
+      <c r="I591"/>
+      <c r="J591"/>
+      <c r="K591"/>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>656</v>
+      </c>
+      <c r="B592">
+        <v>656</v>
+      </c>
+      <c r="C592"/>
+      <c r="D592"/>
+      <c r="E592"/>
+      <c r="F592"/>
+      <c r="G592"/>
+      <c r="H592"/>
+      <c r="I592"/>
+      <c r="J592"/>
+      <c r="K592"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>658</v>
+      </c>
+      <c r="B593">
+        <v>658</v>
+      </c>
+      <c r="C593"/>
+      <c r="D593"/>
+      <c r="E593"/>
+      <c r="F593"/>
+      <c r="G593"/>
+      <c r="H593"/>
+      <c r="I593"/>
+      <c r="J593"/>
+      <c r="K593"/>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>664</v>
+      </c>
+      <c r="B594">
+        <v>664</v>
+      </c>
+      <c r="C594"/>
+      <c r="D594"/>
+      <c r="E594"/>
+      <c r="F594"/>
+      <c r="G594"/>
+      <c r="H594"/>
+      <c r="I594"/>
+      <c r="J594"/>
+      <c r="K594"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>667</v>
+      </c>
+      <c r="B595">
+        <v>667</v>
+      </c>
+      <c r="C595"/>
+      <c r="D595"/>
+      <c r="E595"/>
+      <c r="F595"/>
+      <c r="G595"/>
+      <c r="H595"/>
+      <c r="I595"/>
+      <c r="J595"/>
+      <c r="K595"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>670</v>
+      </c>
+      <c r="B596">
+        <v>670</v>
+      </c>
+      <c r="C596"/>
+      <c r="D596"/>
+      <c r="E596"/>
+      <c r="F596"/>
+      <c r="G596"/>
+      <c r="H596"/>
+      <c r="I596"/>
+      <c r="J596"/>
+      <c r="K596"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>680</v>
+      </c>
+      <c r="B597">
+        <v>680</v>
+      </c>
+      <c r="C597"/>
+      <c r="D597"/>
+      <c r="E597"/>
+      <c r="F597"/>
+      <c r="G597"/>
+      <c r="H597"/>
+      <c r="I597"/>
+      <c r="J597"/>
+      <c r="K597"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>681</v>
+      </c>
+      <c r="B598"/>
+      <c r="C598"/>
+      <c r="D598"/>
+      <c r="E598"/>
+      <c r="F598"/>
+      <c r="G598"/>
+      <c r="H598">
+        <v>681</v>
+      </c>
+      <c r="I598"/>
+      <c r="J598"/>
+      <c r="K598"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>685</v>
+      </c>
+      <c r="B599"/>
+      <c r="C599"/>
+      <c r="D599"/>
+      <c r="E599"/>
+      <c r="F599"/>
+      <c r="G599"/>
+      <c r="H599">
+        <v>685</v>
+      </c>
+      <c r="I599"/>
+      <c r="J599"/>
+      <c r="K599"/>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>694</v>
+      </c>
+      <c r="B600">
+        <v>694</v>
+      </c>
+      <c r="C600"/>
+      <c r="D600"/>
+      <c r="E600"/>
+      <c r="F600"/>
+      <c r="G600"/>
+      <c r="H600"/>
+      <c r="I600"/>
+      <c r="J600"/>
+      <c r="K600"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>699</v>
+      </c>
+      <c r="B601"/>
+      <c r="C601"/>
+      <c r="D601"/>
+      <c r="E601"/>
+      <c r="F601"/>
+      <c r="G601"/>
+      <c r="H601">
+        <v>699</v>
+      </c>
+      <c r="I601"/>
+      <c r="J601"/>
+      <c r="K601"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>700</v>
+      </c>
+      <c r="B602">
+        <v>700</v>
+      </c>
+      <c r="C602"/>
+      <c r="D602"/>
+      <c r="E602"/>
+      <c r="F602"/>
+      <c r="G602"/>
+      <c r="H602"/>
+      <c r="I602"/>
+      <c r="J602"/>
+      <c r="K602"/>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>702</v>
+      </c>
+      <c r="B603"/>
+      <c r="C603"/>
+      <c r="D603"/>
+      <c r="E603"/>
+      <c r="F603"/>
+      <c r="G603"/>
+      <c r="H603">
+        <v>702</v>
+      </c>
+      <c r="I603"/>
+      <c r="J603"/>
+      <c r="K603"/>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>707</v>
+      </c>
+      <c r="B604"/>
+      <c r="C604"/>
+      <c r="D604"/>
+      <c r="E604"/>
+      <c r="F604"/>
+      <c r="G604"/>
+      <c r="H604">
+        <v>707</v>
+      </c>
+      <c r="I604"/>
+      <c r="J604"/>
+      <c r="K604"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>711</v>
+      </c>
+      <c r="B605"/>
+      <c r="C605"/>
+      <c r="D605"/>
+      <c r="E605"/>
+      <c r="F605"/>
+      <c r="G605"/>
+      <c r="H605">
+        <v>711</v>
+      </c>
+      <c r="I605"/>
+      <c r="J605"/>
+      <c r="K605"/>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>730</v>
+      </c>
+      <c r="B606"/>
+      <c r="C606"/>
+      <c r="D606"/>
+      <c r="E606"/>
+      <c r="F606"/>
+      <c r="G606"/>
+      <c r="H606">
+        <v>730</v>
+      </c>
+      <c r="I606"/>
+      <c r="J606"/>
+      <c r="K606"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>733</v>
+      </c>
+      <c r="B607"/>
+      <c r="C607"/>
+      <c r="D607"/>
+      <c r="E607"/>
+      <c r="F607"/>
+      <c r="G607"/>
+      <c r="H607">
+        <v>733</v>
+      </c>
+      <c r="I607"/>
+      <c r="J607"/>
+      <c r="K607"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>734</v>
+      </c>
+      <c r="B608"/>
+      <c r="C608"/>
+      <c r="D608"/>
+      <c r="E608">
+        <v>734</v>
+      </c>
+      <c r="F608"/>
+      <c r="G608"/>
+      <c r="H608"/>
+      <c r="I608"/>
+      <c r="J608"/>
+      <c r="K608"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>735</v>
+      </c>
+      <c r="B609"/>
+      <c r="C609"/>
+      <c r="D609">
+        <v>735</v>
+      </c>
+      <c r="E609"/>
+      <c r="F609"/>
+      <c r="G609"/>
+      <c r="H609"/>
+      <c r="I609"/>
+      <c r="J609"/>
+      <c r="K609"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>736</v>
+      </c>
+      <c r="B610"/>
+      <c r="C610"/>
+      <c r="D610"/>
+      <c r="E610"/>
+      <c r="F610"/>
+      <c r="G610"/>
+      <c r="H610">
+        <v>736</v>
+      </c>
+      <c r="I610"/>
+      <c r="J610"/>
+      <c r="K610"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>739</v>
+      </c>
+      <c r="B611"/>
+      <c r="C611"/>
+      <c r="D611"/>
+      <c r="E611"/>
+      <c r="F611"/>
+      <c r="G611"/>
+      <c r="H611">
+        <v>739</v>
+      </c>
+      <c r="I611"/>
+      <c r="J611"/>
+      <c r="K611"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>741</v>
+      </c>
+      <c r="B612">
+        <v>741</v>
+      </c>
+      <c r="C612"/>
+      <c r="D612"/>
+      <c r="E612"/>
+      <c r="F612"/>
+      <c r="G612"/>
+      <c r="H612"/>
+      <c r="I612"/>
+      <c r="J612"/>
+      <c r="K612"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>749</v>
+      </c>
+      <c r="B613">
+        <v>749</v>
+      </c>
+      <c r="C613"/>
+      <c r="D613"/>
+      <c r="E613"/>
+      <c r="F613"/>
+      <c r="G613"/>
+      <c r="H613"/>
+      <c r="I613"/>
+      <c r="J613"/>
+      <c r="K613"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>752</v>
+      </c>
+      <c r="B614"/>
+      <c r="C614">
+        <v>752</v>
+      </c>
+      <c r="D614"/>
+      <c r="E614"/>
+      <c r="F614"/>
+      <c r="G614"/>
+      <c r="H614"/>
+      <c r="I614"/>
+      <c r="J614"/>
+      <c r="K614"/>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>764</v>
+      </c>
+      <c r="B615">
+        <v>764</v>
+      </c>
+      <c r="C615"/>
+      <c r="D615"/>
+      <c r="E615"/>
+      <c r="F615"/>
+      <c r="G615"/>
+      <c r="H615"/>
+      <c r="I615"/>
+      <c r="J615"/>
+      <c r="K615"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>765</v>
+      </c>
+      <c r="B616"/>
+      <c r="C616"/>
+      <c r="D616"/>
+      <c r="E616"/>
+      <c r="F616"/>
+      <c r="G616"/>
+      <c r="H616">
+        <v>765</v>
+      </c>
+      <c r="I616"/>
+      <c r="J616"/>
+      <c r="K616"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>768</v>
+      </c>
+      <c r="B617"/>
+      <c r="C617"/>
+      <c r="D617"/>
+      <c r="E617"/>
+      <c r="F617"/>
+      <c r="G617"/>
+      <c r="H617">
+        <v>768</v>
+      </c>
+      <c r="I617"/>
+      <c r="J617"/>
+      <c r="K617"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>770</v>
+      </c>
+      <c r="B618">
+        <v>770</v>
+      </c>
+      <c r="C618"/>
+      <c r="D618"/>
+      <c r="E618"/>
+      <c r="F618"/>
+      <c r="G618"/>
+      <c r="H618"/>
+      <c r="I618"/>
+      <c r="J618"/>
+      <c r="K618"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>778</v>
+      </c>
+      <c r="B619"/>
+      <c r="C619"/>
+      <c r="D619"/>
+      <c r="E619"/>
+      <c r="F619"/>
+      <c r="G619"/>
+      <c r="H619">
+        <v>778</v>
+      </c>
+      <c r="I619"/>
+      <c r="J619"/>
+      <c r="K619"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>781</v>
+      </c>
+      <c r="B620"/>
+      <c r="C620"/>
+      <c r="D620"/>
+      <c r="E620"/>
+      <c r="F620"/>
+      <c r="G620"/>
+      <c r="H620">
+        <v>781</v>
+      </c>
+      <c r="I620"/>
+      <c r="J620"/>
+      <c r="K620"/>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>782</v>
+      </c>
+      <c r="B621"/>
+      <c r="C621"/>
+      <c r="D621"/>
+      <c r="E621">
+        <v>782</v>
+      </c>
+      <c r="F621"/>
+      <c r="G621"/>
+      <c r="H621"/>
+      <c r="I621"/>
+      <c r="J621"/>
+      <c r="K621"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>786</v>
+      </c>
+      <c r="B622"/>
+      <c r="C622"/>
+      <c r="D622"/>
+      <c r="E622"/>
+      <c r="F622"/>
+      <c r="G622"/>
+      <c r="H622">
+        <v>786</v>
+      </c>
+      <c r="I622"/>
+      <c r="J622"/>
+      <c r="K622"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>797</v>
+      </c>
+      <c r="B623"/>
+      <c r="C623"/>
+      <c r="D623"/>
+      <c r="E623"/>
+      <c r="F623"/>
+      <c r="G623"/>
+      <c r="H623">
+        <v>797</v>
+      </c>
+      <c r="I623"/>
+      <c r="J623"/>
+      <c r="K623"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>804</v>
+      </c>
+      <c r="B624">
+        <v>804</v>
+      </c>
+      <c r="C624"/>
+      <c r="D624"/>
+      <c r="E624"/>
+      <c r="F624"/>
+      <c r="G624"/>
+      <c r="H624"/>
+      <c r="I624"/>
+      <c r="J624"/>
+      <c r="K624"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>815</v>
+      </c>
+      <c r="B625"/>
+      <c r="C625"/>
+      <c r="D625"/>
+      <c r="E625"/>
+      <c r="F625"/>
+      <c r="G625"/>
+      <c r="H625">
+        <v>815</v>
+      </c>
+      <c r="I625"/>
+      <c r="J625"/>
+      <c r="K625"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>818</v>
+      </c>
+      <c r="B626">
+        <v>818</v>
+      </c>
+      <c r="C626"/>
+      <c r="D626"/>
+      <c r="E626"/>
+      <c r="F626"/>
+      <c r="G626"/>
+      <c r="H626"/>
+      <c r="I626"/>
+      <c r="J626"/>
+      <c r="K626"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>828</v>
+      </c>
+      <c r="B627">
+        <v>828</v>
+      </c>
+      <c r="C627"/>
+      <c r="D627"/>
+      <c r="E627"/>
+      <c r="F627"/>
+      <c r="G627"/>
+      <c r="H627"/>
+      <c r="I627"/>
+      <c r="J627"/>
+      <c r="K627"/>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>837</v>
+      </c>
+      <c r="B628">
+        <v>837</v>
+      </c>
+      <c r="C628"/>
+      <c r="D628"/>
+      <c r="E628"/>
+      <c r="F628"/>
+      <c r="G628"/>
+      <c r="H628"/>
+      <c r="I628"/>
+      <c r="J628"/>
+      <c r="K628"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>842</v>
+      </c>
+      <c r="B629"/>
+      <c r="C629"/>
+      <c r="D629"/>
+      <c r="E629"/>
+      <c r="F629"/>
+      <c r="G629"/>
+      <c r="H629">
+        <v>842</v>
+      </c>
+      <c r="I629"/>
+      <c r="J629"/>
+      <c r="K629"/>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>844</v>
+      </c>
+      <c r="B630"/>
+      <c r="C630"/>
+      <c r="D630"/>
+      <c r="E630"/>
+      <c r="F630"/>
+      <c r="G630" s="3">
+        <v>844</v>
+      </c>
+      <c r="H630"/>
+      <c r="I630"/>
+      <c r="J630"/>
+      <c r="K630"/>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>845</v>
+      </c>
+      <c r="B631"/>
+      <c r="C631"/>
+      <c r="D631"/>
+      <c r="E631"/>
+      <c r="F631"/>
+      <c r="G631"/>
+      <c r="H631">
+        <v>845</v>
+      </c>
+      <c r="I631"/>
+      <c r="J631"/>
+      <c r="K631"/>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>849</v>
+      </c>
+      <c r="B632"/>
+      <c r="C632"/>
+      <c r="D632"/>
+      <c r="E632"/>
+      <c r="F632"/>
+      <c r="G632"/>
+      <c r="H632">
+        <v>849</v>
+      </c>
+      <c r="I632"/>
+      <c r="J632"/>
+      <c r="K632"/>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>855</v>
+      </c>
+      <c r="B633"/>
+      <c r="C633"/>
+      <c r="D633"/>
+      <c r="E633"/>
+      <c r="F633"/>
+      <c r="G633"/>
+      <c r="H633">
+        <v>855</v>
+      </c>
+      <c r="I633"/>
+      <c r="J633"/>
+      <c r="K633"/>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>863</v>
+      </c>
+      <c r="B634"/>
+      <c r="C634"/>
+      <c r="D634"/>
+      <c r="E634">
+        <v>863</v>
+      </c>
+      <c r="F634"/>
+      <c r="G634"/>
+      <c r="H634"/>
+      <c r="I634"/>
+      <c r="J634"/>
+      <c r="K634"/>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>868</v>
+      </c>
+      <c r="B635">
+        <v>868</v>
+      </c>
+      <c r="C635"/>
+      <c r="D635"/>
+      <c r="E635"/>
+      <c r="F635"/>
+      <c r="G635"/>
+      <c r="H635"/>
+      <c r="I635"/>
+      <c r="J635"/>
+      <c r="K635"/>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>891</v>
+      </c>
+      <c r="B636">
+        <v>891</v>
+      </c>
+      <c r="C636"/>
+      <c r="D636"/>
+      <c r="E636"/>
+      <c r="F636"/>
+      <c r="G636"/>
+      <c r="H636"/>
+      <c r="I636"/>
+      <c r="J636"/>
+      <c r="K636"/>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>898</v>
+      </c>
+      <c r="B637"/>
+      <c r="C637"/>
+      <c r="D637"/>
+      <c r="E637"/>
+      <c r="F637"/>
+      <c r="G637"/>
+      <c r="H637">
+        <v>898</v>
+      </c>
+      <c r="I637"/>
+      <c r="J637"/>
+      <c r="K637"/>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>903</v>
+      </c>
+      <c r="B638"/>
+      <c r="C638"/>
+      <c r="D638"/>
+      <c r="E638"/>
+      <c r="F638"/>
+      <c r="G638"/>
+      <c r="H638">
+        <v>903</v>
+      </c>
+      <c r="I638"/>
+      <c r="J638"/>
+      <c r="K638"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>905</v>
+      </c>
+      <c r="B639">
+        <v>905</v>
+      </c>
+      <c r="C639"/>
+      <c r="D639"/>
+      <c r="E639"/>
+      <c r="F639"/>
+      <c r="G639"/>
+      <c r="H639"/>
+      <c r="I639"/>
+      <c r="J639"/>
+      <c r="K639"/>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>914</v>
+      </c>
+      <c r="B640">
+        <v>914</v>
+      </c>
+      <c r="C640"/>
+      <c r="D640"/>
+      <c r="E640"/>
+      <c r="F640"/>
+      <c r="G640"/>
+      <c r="H640"/>
+      <c r="I640"/>
+      <c r="J640"/>
+      <c r="K640"/>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>931</v>
+      </c>
+      <c r="B641"/>
+      <c r="C641"/>
+      <c r="D641"/>
+      <c r="E641"/>
+      <c r="F641"/>
+      <c r="G641"/>
+      <c r="H641">
+        <v>931</v>
+      </c>
+      <c r="I641"/>
+      <c r="J641"/>
+      <c r="K641"/>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>935</v>
+      </c>
+      <c r="B642"/>
+      <c r="C642"/>
+      <c r="D642"/>
+      <c r="E642"/>
+      <c r="F642"/>
+      <c r="G642"/>
+      <c r="H642">
+        <v>935</v>
+      </c>
+      <c r="I642"/>
+      <c r="J642"/>
+      <c r="K642"/>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>938</v>
+      </c>
+      <c r="B643"/>
+      <c r="C643"/>
+      <c r="D643"/>
+      <c r="E643">
+        <v>938</v>
+      </c>
+      <c r="F643"/>
+      <c r="G643"/>
+      <c r="H643"/>
+      <c r="I643"/>
+      <c r="J643"/>
+      <c r="K643"/>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>940</v>
+      </c>
+      <c r="B644">
+        <v>940</v>
+      </c>
+      <c r="C644"/>
+      <c r="D644"/>
+      <c r="E644"/>
+      <c r="F644"/>
+      <c r="G644"/>
+      <c r="H644"/>
+      <c r="I644"/>
+      <c r="J644"/>
+      <c r="K644"/>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>942</v>
+      </c>
+      <c r="B645">
+        <v>942</v>
+      </c>
+      <c r="C645"/>
+      <c r="D645"/>
+      <c r="E645"/>
+      <c r="F645"/>
+      <c r="G645"/>
+      <c r="H645"/>
+      <c r="I645"/>
+      <c r="J645"/>
+      <c r="K645"/>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>947</v>
+      </c>
+      <c r="B646">
+        <v>947</v>
+      </c>
+      <c r="C646"/>
+      <c r="D646"/>
+      <c r="E646"/>
+      <c r="F646"/>
+      <c r="G646"/>
+      <c r="H646"/>
+      <c r="I646"/>
+      <c r="J646"/>
+      <c r="K646"/>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>962</v>
+      </c>
+      <c r="B647"/>
+      <c r="C647"/>
+      <c r="D647"/>
+      <c r="E647"/>
+      <c r="F647"/>
+      <c r="G647"/>
+      <c r="H647">
+        <v>962</v>
+      </c>
+      <c r="I647"/>
+      <c r="J647"/>
+      <c r="K647"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>166</v>
+      </c>
+      <c r="B648">
+        <v>4</v>
+      </c>
+      <c r="C648"/>
+      <c r="D648"/>
+      <c r="E648"/>
+      <c r="F648"/>
+      <c r="G648"/>
+      <c r="H648"/>
+      <c r="I648"/>
+      <c r="J648"/>
+      <c r="K648"/>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>167</v>
+      </c>
+      <c r="B649"/>
+      <c r="C649"/>
+      <c r="D649"/>
+      <c r="E649"/>
+      <c r="F649"/>
+      <c r="G649">
+        <v>9</v>
+      </c>
+      <c r="H649"/>
+      <c r="I649"/>
+      <c r="J649"/>
+      <c r="K649"/>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>168</v>
+      </c>
+      <c r="B650"/>
+      <c r="C650"/>
+      <c r="D650"/>
+      <c r="E650"/>
+      <c r="F650"/>
+      <c r="G650"/>
+      <c r="H650">
+        <v>24</v>
+      </c>
+      <c r="I650"/>
+      <c r="J650"/>
+      <c r="K650"/>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>169</v>
+      </c>
+      <c r="B651"/>
+      <c r="C651"/>
+      <c r="D651"/>
+      <c r="E651"/>
+      <c r="F651"/>
+      <c r="G651"/>
+      <c r="H651">
+        <v>31</v>
+      </c>
+      <c r="I651"/>
+      <c r="J651"/>
+      <c r="K651"/>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>170</v>
+      </c>
+      <c r="B652">
+        <v>33</v>
+      </c>
+      <c r="C652"/>
+      <c r="D652"/>
+      <c r="E652"/>
+      <c r="F652"/>
+      <c r="G652"/>
+      <c r="H652"/>
+      <c r="I652"/>
+      <c r="J652"/>
+      <c r="K652"/>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>171</v>
+      </c>
+      <c r="B653"/>
+      <c r="C653"/>
+      <c r="D653"/>
+      <c r="E653"/>
+      <c r="F653"/>
+      <c r="G653"/>
+      <c r="H653">
+        <v>36</v>
+      </c>
+      <c r="I653"/>
+      <c r="J653"/>
+      <c r="K653"/>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>172</v>
+      </c>
+      <c r="B654"/>
+      <c r="C654"/>
+      <c r="D654"/>
+      <c r="E654" s="3">
+        <v>37</v>
+      </c>
+      <c r="F654"/>
+      <c r="G654"/>
+      <c r="H654"/>
+      <c r="I654"/>
+      <c r="J654"/>
+      <c r="K654"/>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>173</v>
+      </c>
+      <c r="B655">
+        <v>51</v>
+      </c>
+      <c r="C655"/>
+      <c r="D655"/>
+      <c r="E655"/>
+      <c r="F655"/>
+      <c r="G655"/>
+      <c r="H655"/>
+      <c r="I655"/>
+      <c r="J655"/>
+      <c r="K655"/>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>174</v>
+      </c>
+      <c r="B656" s="3">
+        <v>64</v>
+      </c>
+      <c r="C656"/>
+      <c r="D656"/>
+      <c r="E656"/>
+      <c r="F656"/>
+      <c r="G656"/>
+      <c r="H656"/>
+      <c r="I656"/>
+      <c r="J656"/>
+      <c r="K656"/>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>175</v>
+      </c>
+      <c r="B657"/>
+      <c r="C657"/>
+      <c r="D657"/>
+      <c r="E657"/>
+      <c r="F657"/>
+      <c r="G657">
+        <v>85</v>
+      </c>
+      <c r="H657"/>
+      <c r="I657"/>
+      <c r="J657"/>
+      <c r="K657"/>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>176</v>
+      </c>
+      <c r="B658"/>
+      <c r="C658"/>
+      <c r="D658"/>
+      <c r="E658"/>
+      <c r="F658">
+        <v>89</v>
+      </c>
+      <c r="G658"/>
+      <c r="H658"/>
+      <c r="I658"/>
+      <c r="J658"/>
+      <c r="K658"/>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>177</v>
+      </c>
+      <c r="B659"/>
+      <c r="C659"/>
+      <c r="D659"/>
+      <c r="E659"/>
+      <c r="F659"/>
+      <c r="G659">
+        <v>121</v>
+      </c>
+      <c r="H659"/>
+      <c r="I659"/>
+      <c r="J659"/>
+      <c r="K659"/>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>3</v>
+      </c>
+      <c r="B660"/>
+      <c r="C660"/>
+      <c r="D660"/>
+      <c r="E660"/>
+      <c r="F660"/>
+      <c r="G660"/>
+      <c r="H660">
+        <v>3</v>
+      </c>
+      <c r="I660"/>
+      <c r="J660"/>
+      <c r="K660"/>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>19</v>
+      </c>
+      <c r="B661">
+        <v>19</v>
+      </c>
+      <c r="C661"/>
+      <c r="D661"/>
+      <c r="E661"/>
+      <c r="F661"/>
+      <c r="G661"/>
+      <c r="H661"/>
+      <c r="I661"/>
+      <c r="J661"/>
+      <c r="K661"/>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>75</v>
+      </c>
+      <c r="B662">
+        <v>75</v>
+      </c>
+      <c r="C662"/>
+      <c r="D662"/>
+      <c r="E662"/>
+      <c r="F662"/>
+      <c r="G662"/>
+      <c r="H662"/>
+      <c r="I662"/>
+      <c r="J662"/>
+      <c r="K662"/>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>96</v>
+      </c>
+      <c r="B663"/>
+      <c r="C663"/>
+      <c r="D663"/>
+      <c r="E663"/>
+      <c r="F663"/>
+      <c r="G663"/>
+      <c r="H663">
+        <v>96</v>
+      </c>
+      <c r="I663"/>
+      <c r="J663"/>
+      <c r="K663"/>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>123</v>
+      </c>
+      <c r="B664"/>
+      <c r="C664"/>
+      <c r="D664"/>
+      <c r="E664"/>
+      <c r="F664"/>
+      <c r="G664"/>
+      <c r="H664">
+        <v>123</v>
+      </c>
+      <c r="I664"/>
+      <c r="J664"/>
+      <c r="K664"/>
+    </row>
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>166</v>
+      </c>
+      <c r="B665"/>
+      <c r="C665"/>
+      <c r="D665"/>
+      <c r="E665"/>
+      <c r="F665"/>
+      <c r="G665"/>
+      <c r="H665">
+        <v>166</v>
+      </c>
+      <c r="I665"/>
+      <c r="J665"/>
+      <c r="K665"/>
+    </row>
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>239</v>
+      </c>
+      <c r="B666"/>
+      <c r="C666">
+        <v>239</v>
+      </c>
+      <c r="D666"/>
+      <c r="E666"/>
+      <c r="F666"/>
+      <c r="G666"/>
+      <c r="H666"/>
+      <c r="I666"/>
+      <c r="J666"/>
+      <c r="K666"/>
+    </row>
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>251</v>
+      </c>
+      <c r="B667">
+        <v>251</v>
+      </c>
+      <c r="C667"/>
+      <c r="D667"/>
+      <c r="E667"/>
+      <c r="F667"/>
+      <c r="G667"/>
+      <c r="H667"/>
+      <c r="I667"/>
+      <c r="J667"/>
+      <c r="K667"/>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>256</v>
+      </c>
+      <c r="B668"/>
+      <c r="C668"/>
+      <c r="D668"/>
+      <c r="E668">
+        <v>256</v>
+      </c>
+      <c r="F668"/>
+      <c r="G668"/>
+      <c r="H668"/>
+      <c r="I668"/>
+      <c r="J668"/>
+      <c r="K668"/>
+    </row>
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>281</v>
+      </c>
+      <c r="B669">
+        <v>281</v>
+      </c>
+      <c r="C669"/>
+      <c r="D669"/>
+      <c r="E669"/>
+      <c r="F669"/>
+      <c r="G669"/>
+      <c r="H669"/>
+      <c r="I669"/>
+      <c r="J669"/>
+      <c r="K669"/>
+    </row>
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>296</v>
+      </c>
+      <c r="B670"/>
+      <c r="C670"/>
+      <c r="D670"/>
+      <c r="E670"/>
+      <c r="F670"/>
+      <c r="G670"/>
+      <c r="H670">
+        <v>296</v>
+      </c>
+      <c r="I670"/>
+      <c r="J670"/>
+      <c r="K670"/>
+    </row>
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>395</v>
+      </c>
+      <c r="B671"/>
+      <c r="C671"/>
+      <c r="D671"/>
+      <c r="E671"/>
+      <c r="F671"/>
+      <c r="G671">
+        <v>395</v>
+      </c>
+      <c r="H671"/>
+      <c r="I671"/>
+      <c r="J671"/>
+      <c r="K671"/>
+    </row>
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>433</v>
+      </c>
+      <c r="B672"/>
+      <c r="C672"/>
+      <c r="D672"/>
+      <c r="E672"/>
+      <c r="F672"/>
+      <c r="G672"/>
+      <c r="H672"/>
+      <c r="I672" s="3">
+        <v>433</v>
+      </c>
+      <c r="J672"/>
+      <c r="K672"/>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>446</v>
+      </c>
+      <c r="B673">
+        <v>446</v>
+      </c>
+      <c r="C673"/>
+      <c r="D673"/>
+      <c r="E673"/>
+      <c r="F673"/>
+      <c r="G673"/>
+      <c r="H673"/>
+      <c r="I673"/>
+      <c r="J673"/>
+      <c r="K673"/>
+    </row>
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>451</v>
+      </c>
+      <c r="B674">
+        <v>451</v>
+      </c>
+      <c r="C674"/>
+      <c r="D674"/>
+      <c r="E674"/>
+      <c r="F674"/>
+      <c r="G674"/>
+      <c r="H674"/>
+      <c r="I674"/>
+      <c r="J674"/>
+      <c r="K674"/>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>578</v>
+      </c>
+      <c r="B675">
+        <v>578</v>
+      </c>
+      <c r="C675"/>
+      <c r="D675"/>
+      <c r="E675"/>
+      <c r="F675"/>
+      <c r="G675"/>
+      <c r="H675"/>
+      <c r="I675"/>
+      <c r="J675"/>
+      <c r="K675"/>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>586</v>
+      </c>
+      <c r="B676">
+        <v>586</v>
+      </c>
+      <c r="C676"/>
+      <c r="D676"/>
+      <c r="E676"/>
+      <c r="F676"/>
+      <c r="G676"/>
+      <c r="H676"/>
+      <c r="I676"/>
+      <c r="J676"/>
+      <c r="K676"/>
+    </row>
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>631</v>
+      </c>
+      <c r="B677">
+        <v>631</v>
+      </c>
+      <c r="C677"/>
+      <c r="D677"/>
+      <c r="E677"/>
+      <c r="F677"/>
+      <c r="G677"/>
+      <c r="H677"/>
+      <c r="I677"/>
+      <c r="J677"/>
+      <c r="K677"/>
+    </row>
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>632</v>
+      </c>
+      <c r="B678"/>
+      <c r="C678"/>
+      <c r="D678"/>
+      <c r="E678"/>
+      <c r="F678"/>
+      <c r="G678">
+        <v>632</v>
+      </c>
+      <c r="H678"/>
+      <c r="I678"/>
+      <c r="J678"/>
+      <c r="K678"/>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>633</v>
+      </c>
+      <c r="B679"/>
+      <c r="C679"/>
+      <c r="D679"/>
+      <c r="E679"/>
+      <c r="F679"/>
+      <c r="G679"/>
+      <c r="H679">
+        <v>633</v>
+      </c>
+      <c r="I679"/>
+      <c r="J679"/>
+      <c r="K679"/>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>760</v>
+      </c>
+      <c r="B680">
+        <v>760</v>
+      </c>
+      <c r="C680"/>
+      <c r="D680"/>
+      <c r="E680"/>
+      <c r="F680"/>
+      <c r="G680"/>
+      <c r="H680"/>
+      <c r="I680"/>
+      <c r="J680"/>
+      <c r="K680"/>
+    </row>
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>775</v>
+      </c>
+      <c r="B681"/>
+      <c r="C681"/>
+      <c r="D681"/>
+      <c r="E681"/>
+      <c r="F681"/>
+      <c r="G681">
+        <v>775</v>
+      </c>
+      <c r="H681"/>
+      <c r="I681"/>
+      <c r="J681"/>
+      <c r="K681"/>
+    </row>
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>781</v>
+      </c>
+      <c r="B682"/>
+      <c r="C682"/>
+      <c r="D682"/>
+      <c r="E682"/>
+      <c r="F682"/>
+      <c r="G682"/>
+      <c r="H682">
+        <v>781</v>
+      </c>
+      <c r="I682"/>
+      <c r="J682"/>
+      <c r="K682"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K20">
